--- a/output/fit_clients/fit_round_48.xlsx
+++ b/output/fit_clients/fit_round_48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>7399695453.174276</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.004700410289006782</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>10</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.357157122381391</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9547339770010148</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.357157122381391</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5774835595.205149</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.00616119626573649</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>11</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2.876190257689665</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9088656566918771</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-2.876190257689665</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>4023394414.47428</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002798723010675989</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.548349721614698</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.9655616607194057</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-3.548349721614698</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>4139521047.309592</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.003757722826645981</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.7423840550335933</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2.906869727852083</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.9594790105705714</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-2.906869727852083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7310108583.359844</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.001879701497462567</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>16</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.523001352835756</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8459396954387154</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.523001352835756</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>6217061287.273572</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.001360571448323705</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.340064777429481</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-0.408248290463863</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-3.340064777429481</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>5658321596.947908</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.003323587913460941</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>7</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.7710211876929128</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502937</v>
-      </c>
-      <c r="L8" t="n">
-        <v>3.499768414792507</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.096784762846396</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-3.499768414792507</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>6924583657.746459</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.005186008662755391</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923065</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.732278088861452</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9213433336776018</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-3.732278088861452</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>4121826080.945904</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00388184795512416</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.159672475962735</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.9601684168031503</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.159672475962735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>3941404503.477935</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.00129290008270096</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.846978331992561</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.7950447956783975</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.846978331992561</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>5773393584.690512</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001767917333362779</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.956497428804893</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.016064555893753</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-3.956497428804893</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6410546630.454259</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.002982749512097134</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.754468443338205</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.024301312498439</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.754468443338205</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7056606633.03153</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.002979795561799255</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
-        <v>8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.361947651024259</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9042310453599397</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.361947651024259</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>6746495244.319069</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.003866094699747217</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>10</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.295139852531188</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.9731230477698019</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.295139852531188</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>5409476366.323847</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004476082875470312</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.257771706000514</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.9111347688517665</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.257771706000514</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4352152619.799843</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.002160357399842402</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950106</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3.29031077249202</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9448320202728381</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-3.29031077249202</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>5092969551.77338</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001289752890586758</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5.341106343749922</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.9868814557967907</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-5.341106343749922</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>3572903043.884042</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.001539624104599319</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>12</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.8303068305324235</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.792221991761042</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.090025693885692</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.792221991761042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>5474388670.322536</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001373577904157795</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.801420848018502</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.84950880962815</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.801420848018502</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>5592410438.940457</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.00442708955108705</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>12</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.7286680373246007</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>2.951943156187443</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.9573774240202138</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-2.951943156187443</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4923174769.009124</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003481322466849538</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>8</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>3.474877880037594</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8433737520286529</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-3.474877880037594</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>5925035821.381583</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001807431910284173</v>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>14</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.7399774474773952</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.528340065042209</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.9781822089516248</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.528340065042209</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7841713210.356787</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003147109270057416</v>
       </c>
       <c r="G24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>8</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.478041743878841</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.001615100192479</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-3.478041743878841</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>5756630269.479636</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.004241723209096065</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
-        <v>7</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.651519111854223</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9492252556740675</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.651519111854223</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>4336308228.477693</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.001087461832399043</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>13</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>2.515643944689927</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8041982857627407</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-2.515643944689927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>6162692626.504047</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.003614698598687174</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>10</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.05859111093539</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9359836898042403</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.05859111093539</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>7298294542.129238</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.004944244421841253</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>10</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.061342748921923</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8996294980030549</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.061342748921923</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6356069255.123556</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001407185530053254</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>8</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>3.476307596859617</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.9900977747322046</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-3.476307596859617</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>5855215031.147035</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003978258982835327</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>9</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.058915187178632</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.9053947511794634</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.058915187178632</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>7141621473.718643</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003116225244286822</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.2227727067604593</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>2.975143343378752</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.4443322630187999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-2.975143343378752</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>4105849561.845623</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001058502336948301</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>8</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.658167313856083</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.9536197381600465</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.658167313856083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6098898670.310781</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.002457715778445531</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>8</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>3.465162902924824</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8495329288250851</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-3.465162902924824</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>6399614411.616425</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004703702021050573</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.6210226963927481</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967666</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.738280496534244</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8016844875148673</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-3.738280496534244</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5657245504.494033</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002193731314870147</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>9</v>
-      </c>
-      <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>3.182690524673383</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.252489625081886</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-3.182690524673383</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5404657997.841787</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003182882588241357</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.185374997435787</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.020191246906577</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.185374997435787</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>4679615933.3792</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005480830166287345</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.075200019051668</v>
-      </c>
-      <c r="M37" t="n">
-        <v>1.010971176147993</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.075200019051668</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3760619547.39244</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.004628616506324245</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2.820029231537405</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.8949928458935202</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-2.820029231537405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>4864551378.582291</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.003063612220028574</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>9</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.8326289314762323</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.383266329351979</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.043097273003627</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.383266329351979</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6596552924.908038</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.003225193108487559</v>
       </c>
       <c r="G40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.2248487589313</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9827191393708677</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.2248487589313</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6443893925.065581</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001437863911286973</v>
       </c>
       <c r="G41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.392068469658875</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9314950127721985</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-3.392068469658875</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>4412238852.20472</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.005508023005034886</v>
       </c>
       <c r="G42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.086552992630124</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0.9890544529910175</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.086552992630124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>6017539922.979041</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.003863594245077249</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.49072805925204</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9392979479300555</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.49072805925204</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>4759671423.291228</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.002194628668726507</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>13</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2.804159220230556</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.9191551567723909</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-2.804159220230556</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5563921319.860688</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001281157572848517</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>10</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.31734980177008</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9514519535488015</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.31734980177008</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>9145593476.548212</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00464156980445208</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>10</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.059662194865409</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.8271700521116296</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.059662194865409</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>8301492569.823135</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002240565613054391</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.288238199671431</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9179642537191216</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.288238199671431</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>7534095711.497931</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.002788630973076226</v>
       </c>
       <c r="G48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>5</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>4.263582512494106</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9752111473491046</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-4.263582512494106</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>5547059382.913998</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.003940002697986724</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>10</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263177</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.166657327864571</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8891371057897639</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.166657327864571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6211985789.623461</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.002553431143968873</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.461806553996301</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.050346947908814</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.461806553996301</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5047850646.224028</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.004838948531778695</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>12</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>2.853884155963068</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9437712240092863</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-2.853884155963068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>8408254531.98126</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.001740744711646194</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>2.967166736580827</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8470988207178205</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-2.967166736580827</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>5180044197.611269</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.002595225887648022</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
         <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.203819657318544</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.92926459308516</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.203819657318544</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>4447332020.842891</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.005426638744245421</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.82187043176695</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8495691063365965</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.82187043176695</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>7907052802.023782</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004329741180464221</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>2.777200567324388</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0.8915024043901308</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-2.777200567324388</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>3918316875.441687</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.001902267544937872</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>8</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.8758923537390413</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>3.406790282053057</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.150325071121157</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-3.406790282053057</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>5527850796.003441</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.004056570876424909</v>
       </c>
       <c r="G57" t="b">
         <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>9</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.7068462171248093</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>3.14626065254933</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.9227451028736351</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-3.14626065254933</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>7345797236.79455</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.001739092698964479</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.535894029442351</v>
-      </c>
-      <c r="M58" t="n">
-        <v>0.8041982857627407</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.535894029442351</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6462565255.028635</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.002952466507227886</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>10</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.996865755992669</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0.8903090335392794</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.996865755992669</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>5433908715.071441</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003341097599460457</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.732022291507799</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677434</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.912613480955028</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.9435898958979088</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-2.912613480955028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>7086831181.493237</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003904757473614649</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.355864608813998</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9349018956840065</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.355864608813998</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4716759249.727279</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.003411064838349939</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>10</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.615813606648941</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8725648632393626</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.615813606648941</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8844341193.324587</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.00460973648641172</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>12</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2.748325458852748</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.905428696666258</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-2.748325458852748</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5322722737.866388</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004916193744938112</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.175015828924921</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9370423688837561</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.175015828924921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>6312008509.431681</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.00454404099477385</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>9</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.1697150055754457</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3.639359428711241</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0.3960040423028229</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-3.639359428711241</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>1</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>6003863250.321204</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.003962174657795671</v>
       </c>
       <c r="G66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>8</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.407378934667244</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.925881227411075</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.407378934667244</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>6450848019.499568</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.004213045692420722</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>6</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>3.952310327396718</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0.9088092941361405</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-3.952310327396718</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>6432146719.593216</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.002873610697219486</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676648</v>
-      </c>
-      <c r="L68" t="n">
-        <v>2.768606655833106</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7308100017044477</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-2.768606655833106</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>5411346687.388067</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.0009514905681510912</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
-        <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.937105972191158</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9963758918520961</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.937105972191158</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5563124989.792084</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.002731370448641028</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.032250518731834</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9280977010033472</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.032250518731834</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3271457677.308187</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.002718896524509403</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>7</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>3.544286172360748</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8195343384936551</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-3.544286172360748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>5196542777.214442</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001823491647545009</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
         <v>10</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4706200040562736</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.031447184800471</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.9025875286127376</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.031447184800471</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>8038990875.969222</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001165953552195307</v>
       </c>
       <c r="G73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>8</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>3.352460777585506</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.9612430916134435</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-3.352460777585506</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>5159035111.261926</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.004078713686850997</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>8</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.307235072667168</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0.8937926731673842</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.307235072667168</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>5585004060.8491</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003875086376223116</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>12</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>2.869222978473794</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.8483529771818219</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-2.869222978473794</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5144023059.027356</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002660567744853048</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1468949119008708</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.773229279782396</v>
-      </c>
-      <c r="M76" t="n">
-        <v>-0.08530421866425396</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-2.773229279782396</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>6474739760.475456</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005959261040645701</v>
       </c>
       <c r="G77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>4</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>4.73111070301968</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.022183200839246</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-4.73111070301968</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>5450965385.458835</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004121383780189662</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>12</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>2.822775501644323</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.8996522734921084</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-2.822775501644323</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>5766585326.496857</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.002234645562961789</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3.787386550188384</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9762902508908661</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-3.787386550188384</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6305260495.962123</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003149411689837858</v>
       </c>
       <c r="G80" t="b">
         <v>1</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>11</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.199073238479355</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9709882549459792</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.199073238479355</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>6218621739.566962</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.005104532993977806</v>
       </c>
       <c r="G81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.09109150943846475</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>3.790406505531203</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.200016081524007</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-3.790406505531203</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>7523931511.119097</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004905401493870903</v>
       </c>
       <c r="G82" t="b">
         <v>0</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>10</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.8323025365713075</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>3.113648707297164</v>
-      </c>
-      <c r="M82" t="n">
-        <v>1.097525404261227</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-3.113648707297164</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>8289788245.373947</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003128472305614236</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>16</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.6915227860430817</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.36751887009509</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.8728344539529154</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.36751887009509</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>7363226886.737049</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.005004799608123794</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>13</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>2.657257359043264</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.9349018956840065</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-2.657257359043264</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>4169020787.933837</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.002505442998459987</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>13</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>2.624602676998883</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.8961799797096124</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-2.624602676998883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5805102204.542109</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.001991348452139096</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
-        <v>11</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307497</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.165477876377089</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9837900075506013</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.165477876377089</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>5089558015.748496</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001579169931606474</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>14</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="L87" t="n">
-        <v>2.57811906807229</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9634739147275024</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-2.57811906807229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>7980532120.719163</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.00389404629534725</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
         <v>11</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>2.835243788192717</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.8296996742740094</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-2.835243788192717</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>6771673963.398365</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.004712584516761762</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
         <v>10</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.140064703014076</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.9404291556610481</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.140064703014076</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>6919749784.333131</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003619847776369173</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>10</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>2.963985176513588</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.9382090557005172</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-2.963985176513588</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>7347574130.847752</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.003903546060891478</v>
       </c>
       <c r="G91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.05058180575719719</v>
-      </c>
-      <c r="L91" t="n">
-        <v>4.082832324489031</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8470383481612832</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-4.082832324489031</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>4210487578.728723</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.003623675362379435</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>8</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.444686225210082</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.054358899533209</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.444686225210082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5858000954.260479</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001689761948506329</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>11</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.2005867751590511</v>
-      </c>
-      <c r="L93" t="n">
-        <v>2.91912952030539</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9179977344141651</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-2.91912952030539</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>5475990020.083904</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001532295602163775</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>4.268307180934155</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.042394662317526</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-4.268307180934155</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>5837847949.612991</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002762467360310013</v>
       </c>
       <c r="G95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.305087331793601</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9270067041729994</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.305087331793601</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>8440928527.848002</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.002328762957659913</v>
       </c>
       <c r="G96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
         <v>13</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.734843073409816</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.9168835463691029</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.734843073409816</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>7668871947.90505</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.005477355536626996</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>10</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.8822424569728831</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3.17566475286275</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.113837489366137</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-3.17566475286275</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>9007703023.263672</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.003412366271633701</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>7</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.407873682037478</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8914449440249561</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.407873682037478</v>
+        <v>18</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>6</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3663172468.33073</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.005549203972434417</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>12</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.231937672189881</v>
-      </c>
-      <c r="L99" t="n">
-        <v>2.834744189987316</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.8915024043901308</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-2.834744189987316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>5147879708.350522</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.003671141225663531</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.302888946499008</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.8396565599592158</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.302888946499008</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>8161851209.947304</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001304701378691035</v>
       </c>
       <c r="G101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>12</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.6043965982810172</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.070802516745458</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8737824685765136</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.070802516745458</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_48.xlsx
+++ b/output/fit_clients/fit_round_48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>7399695453.174276</v>
+        <v>1628906441.78511</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004700410289006782</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>13</v>
+        <v>0.06912722687220148</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03581833036070008</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>814453166.5097584</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>537</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2166643478.034287</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.1368040345389804</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.04651113286501938</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>542</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5774835595.205149</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.00616119626573649</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
+      <c r="J3" t="n">
+        <v>1083321804.746009</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4023394414.47428</v>
+        <v>4149513251.229019</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002798723010675989</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11</v>
+        <v>0.1252467503128922</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03110648026798945</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2074756650.240275</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4139521047.309592</v>
+        <v>3398186194.377799</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003757722826645981</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.07521152096598531</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.03521373927981387</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>18</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1699093140.56761</v>
       </c>
     </row>
     <row r="6">
@@ -592,22 +626,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7310108583.359844</v>
+        <v>2081038071.215661</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001879701497462567</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+        <v>0.1052960112500023</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04863243844657009</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1040519056.264004</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>6217061287.273572</v>
+        <v>3123721245.876552</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001360571448323705</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.07274055946489975</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.03428804428377793</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1561860575.790529</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>5658321596.947908</v>
+        <v>2401899025.323489</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003323587913460941</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+        <v>0.1709272660885908</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02894617076312686</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1200949508.933029</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>6924583657.746459</v>
+        <v>1546062754.027742</v>
       </c>
       <c r="F9" t="n">
-        <v>0.005186008662755391</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
-        <v>14</v>
+        <v>0.1986492525085516</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02650224362893983</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>773031466.4874932</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>571</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3585409866.182633</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.1891090722448572</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.03413391228508839</v>
+      </c>
+      <c r="H10" t="b">
         <v>1</v>
       </c>
-      <c r="D10" t="n">
-        <v>529</v>
-      </c>
-      <c r="E10" t="n">
-        <v>4121826080.945904</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00388184795512416</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+      <c r="I10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1792704922.741284</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +796,28 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3941404503.477935</v>
+        <v>4076453539.571979</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00129290008270096</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1260564737622637</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.03038711261519524</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>20</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2038226787.676139</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>5773393584.690512</v>
+        <v>2200525663.428184</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001767917333362779</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>14</v>
+        <v>0.1964714300099115</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.03716631979701392</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1100262776.370675</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6410546630.454259</v>
+        <v>4392480564.282451</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002982749512097134</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>9</v>
+        <v>0.06371166497453536</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.02209400617718283</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>17</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2196240317.001342</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7056606633.03153</v>
+        <v>3834840814.878356</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002979795561799255</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>11</v>
+        <v>0.1578381145745765</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.04366560649666244</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>16</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1917420381.321002</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>6746495244.319069</v>
+        <v>1165907418.221705</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003866094699747217</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
+        <v>0.08638155686805546</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03947542544810431</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>582953718.7302561</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>505</v>
+      </c>
+      <c r="E16" t="n">
+        <v>2708595611.208366</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.09359515330731991</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.03518790518932823</v>
+      </c>
+      <c r="H16" t="b">
         <v>1</v>
       </c>
-      <c r="D16" t="n">
-        <v>569</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5409476366.323847</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.004476082875470312</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>15</v>
+      <c r="I16" t="n">
+        <v>5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1354297817.627044</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4352152619.799843</v>
+        <v>3435393291.839063</v>
       </c>
       <c r="F17" t="n">
-        <v>0.002160357399842402</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>11</v>
+        <v>0.1534933543328219</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.03996964044515715</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1717696708.280569</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>536</v>
+        <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>5092969551.77338</v>
+        <v>2583671732.00173</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001289752890586758</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>13</v>
+        <v>0.168355879830101</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.03435240269499019</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>16</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1291835926.244333</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>3572903043.884042</v>
+        <v>1288091570.814742</v>
       </c>
       <c r="F19" t="n">
-        <v>0.001539624104599319</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1632445370797061</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01810904445179418</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>644045884.6673814</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>5474388670.322536</v>
+        <v>2568710109.196678</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001373577904157795</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
+        <v>0.1607889767925955</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02669636851070305</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1284355020.232208</v>
       </c>
     </row>
     <row r="21">
@@ -1015,19 +1139,25 @@
         <v>4</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>5592410438.940457</v>
+        <v>2244545831.604032</v>
       </c>
       <c r="F21" t="n">
-        <v>0.00442708955108705</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
+        <v>0.06797917352240686</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.02822299455019753</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1122272928.241055</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4923174769.009124</v>
+        <v>3548610745.215582</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003481322466849538</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
+        <v>0.1084729551281747</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.05234723722276738</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>13</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1774305401.136671</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>5925035821.381583</v>
+        <v>1238555448.967256</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001807431910284173</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
+        <v>0.183161459189205</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0402900340867618</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>619277754.3492016</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7841713210.356787</v>
+        <v>3472835882.055067</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003147109270057416</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>13</v>
+        <v>0.09343860972041583</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.02686327559704033</v>
+      </c>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>15</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1736417944.34523</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>5756630269.479636</v>
+        <v>1269782167.976822</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004241723209096065</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
+        <v>0.07609441730553523</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02332096156944108</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>634891085.768598</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>4336308228.477693</v>
+        <v>1032917112.766979</v>
       </c>
       <c r="F26" t="n">
-        <v>0.001087461832399043</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.1148698272607579</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03785099684224394</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>516458536.3378302</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>6162692626.504047</v>
+        <v>4207844800.213884</v>
       </c>
       <c r="F27" t="n">
-        <v>0.003614698598687174</v>
-      </c>
-      <c r="G27" t="b">
+        <v>0.1246686124119236</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01839289341092105</v>
+      </c>
+      <c r="H27" t="b">
         <v>1</v>
       </c>
-      <c r="H27" t="n">
-        <v>13</v>
+      <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2103922399.780449</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>499</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2906323084.140073</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09303843021289432</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03197919749388948</v>
+      </c>
+      <c r="H28" t="b">
         <v>1</v>
       </c>
-      <c r="D28" t="n">
-        <v>507</v>
-      </c>
-      <c r="E28" t="n">
-        <v>7298294542.129238</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0.004944244421841253</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>12</v>
+      <c r="I28" t="n">
+        <v>15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1453161545.031179</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6356069255.123556</v>
+        <v>5496333229.949493</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001407185530053254</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>13</v>
+        <v>0.118668864170103</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.04510641655822322</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>21</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2748166527.9594</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>5855215031.147035</v>
+        <v>1625698086.256919</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003978258982835327</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>15</v>
+        <v>0.1382923754251186</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.04026713430348961</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>812849037.8653173</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>7141621473.718643</v>
+        <v>1470891332.48697</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003116225244286822</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>10</v>
+        <v>0.09226653836694622</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.05221827871662514</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>735445553.8361117</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>4105849561.845623</v>
+        <v>1529888197.783662</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001058502336948301</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.103325159205266</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02558362004889218</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>764944173.3150986</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6098898670.310781</v>
+        <v>2168533206.817657</v>
       </c>
       <c r="F33" t="n">
-        <v>0.002457715778445531</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>11</v>
+        <v>0.1676146754986449</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.04005768090345171</v>
+      </c>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>14</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1084266669.704171</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>6399614411.616425</v>
+        <v>1494641778.397998</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004703702021050573</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>15</v>
+        <v>0.09718647730830282</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.01899745097101162</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>747320845.8259915</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1612,28 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5657245504.494033</v>
+        <v>830677394.8169578</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002193731314870147</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>12</v>
+        <v>0.09755969352441556</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03489384629363776</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>415338752.9963435</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5404657997.841787</v>
+        <v>2783676957.079515</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003182882588241357</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>14</v>
+        <v>0.1443094393476078</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02387246168590682</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>12</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1391838477.637996</v>
       </c>
     </row>
     <row r="37">
@@ -1463,19 +1683,25 @@
         <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>4679615933.3792</v>
+        <v>2255915270.250241</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005480830166287345</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
+        <v>0.08991704135874107</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03913274891504259</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>13</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1127957697.466472</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3760619547.39244</v>
+        <v>1599748368.158107</v>
       </c>
       <c r="F38" t="n">
-        <v>0.004628616506324245</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.120706352752561</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02455974202778262</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>799874219.0989739</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>4864551378.582291</v>
+        <v>2104481968.355229</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003063612220028574</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>4</v>
+        <v>0.1810276251854441</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02446283570689279</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1052240962.699063</v>
       </c>
     </row>
     <row r="40">
@@ -1544,22 +1782,28 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6596552924.908038</v>
+        <v>1358727417.088806</v>
       </c>
       <c r="F40" t="n">
-        <v>0.003225193108487559</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40" t="n">
-        <v>12</v>
+        <v>0.1567881002129544</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.04437545072542819</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>679363709.9836581</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6443893925.065581</v>
+        <v>2780816008.450063</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001437863911286973</v>
-      </c>
-      <c r="G41" t="b">
+        <v>0.1443611634158008</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04322070776158522</v>
+      </c>
+      <c r="H41" t="b">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
-        <v>13</v>
+      <c r="I41" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1390408001.856329</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4412238852.20472</v>
+        <v>2966856881.304599</v>
       </c>
       <c r="F42" t="n">
-        <v>0.005508023005034886</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>12</v>
+        <v>0.09108848956987879</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03766850089692247</v>
+      </c>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1483428398.628255</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>6017539922.979041</v>
+        <v>2367325333.357246</v>
       </c>
       <c r="F43" t="n">
-        <v>0.003863594245077249</v>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="n">
-        <v>11</v>
+        <v>0.2042612467455426</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.01950347358872553</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>16</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1183662728.519565</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>4759671423.291228</v>
+        <v>1795823885.024128</v>
       </c>
       <c r="F44" t="n">
-        <v>0.002194628668726507</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>14</v>
+        <v>0.06964835539515722</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03203858805047252</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>897912007.9759519</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5563921319.860688</v>
+        <v>2457008716.517029</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001281157572848517</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1275857304238417</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04404403186579163</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1228504394.990251</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
-        <v>406</v>
+        <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>9145593476.548212</v>
+        <v>3877838435.667708</v>
       </c>
       <c r="F46" t="n">
-        <v>0.00464156980445208</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>8</v>
+        <v>0.1682538146816755</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0440590127427386</v>
+      </c>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17</v>
+      </c>
+      <c r="J46" t="n">
+        <v>1938919180.227813</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>8301492569.823135</v>
+        <v>4734284861.757113</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002240565613054391</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>6</v>
+        <v>0.1931418654235925</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05703384200701148</v>
+      </c>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>13</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2367142471.523119</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>7534095711.497931</v>
+        <v>3346484149.320603</v>
       </c>
       <c r="F48" t="n">
-        <v>0.002788630973076226</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48" t="n">
-        <v>8</v>
+        <v>0.07863058159175114</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02932326548175549</v>
+      </c>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>16</v>
+      </c>
+      <c r="J48" t="n">
+        <v>1673242146.88309</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +2088,28 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>5547059382.913998</v>
+        <v>1218990147.238773</v>
       </c>
       <c r="F49" t="n">
-        <v>0.003940002697986724</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1842146912678737</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.03049087021140502</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>609495149.2223085</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6211985789.623461</v>
+        <v>4218091914.743018</v>
       </c>
       <c r="F50" t="n">
-        <v>0.002553431143968873</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>14</v>
+        <v>0.1755825727816265</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.04099867406488466</v>
+      </c>
+      <c r="H50" t="b">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>16</v>
+      </c>
+      <c r="J50" t="n">
+        <v>2109045930.365003</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5047850646.224028</v>
+        <v>1533734077.112543</v>
       </c>
       <c r="F51" t="n">
-        <v>0.004838948531778695</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1652944289001345</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.0433314958511723</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>766867035.8864118</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>8408254531.98126</v>
+        <v>3590742220.114519</v>
       </c>
       <c r="F52" t="n">
-        <v>0.001740744711646194</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>12</v>
+        <v>0.113259752499838</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.05117780686369132</v>
+      </c>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>20</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1795371190.488954</v>
       </c>
     </row>
     <row r="53">
@@ -1911,19 +2227,25 @@
         <v>3</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>5180044197.611269</v>
+        <v>3375460730.121506</v>
       </c>
       <c r="F53" t="n">
-        <v>0.002595225887648022</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>9</v>
+        <v>0.1407733208195095</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03182269088136925</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1687730371.426672</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4447332020.842891</v>
+        <v>3742938464.957261</v>
       </c>
       <c r="F54" t="n">
-        <v>0.005426638744245421</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>12</v>
+        <v>0.118777763366741</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04070134493951066</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>16</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1871469276.242656</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>7907052802.023782</v>
+        <v>3646470813.47163</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004329741180464221</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>15</v>
+        <v>0.1359369818008436</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02958617750037498</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1823235365.943401</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>3918316875.441687</v>
+        <v>1736747962.749889</v>
       </c>
       <c r="F56" t="n">
-        <v>0.001902267544937872</v>
-      </c>
-      <c r="G56" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" t="n">
-        <v>6</v>
+        <v>0.1554961436106789</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.04633658513481798</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>868373988.4577147</v>
       </c>
     </row>
     <row r="57">
@@ -2023,19 +2363,25 @@
         <v>4</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>5527850796.003441</v>
+        <v>2825146854.071741</v>
       </c>
       <c r="F57" t="n">
-        <v>0.004056570876424909</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>12</v>
+        <v>0.1540047052347729</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02062103086403954</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15</v>
+      </c>
+      <c r="J57" t="n">
+        <v>1412573416.636237</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>7345797236.79455</v>
+        <v>1360165882.707707</v>
       </c>
       <c r="F58" t="n">
-        <v>0.001739092698964479</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>11</v>
+        <v>0.1384598311665764</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02641273235009016</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>680082985.1156627</v>
       </c>
     </row>
     <row r="59">
@@ -2079,19 +2431,25 @@
         <v>2</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6462565255.028635</v>
+        <v>5193946389.789223</v>
       </c>
       <c r="F59" t="n">
-        <v>0.002952466507227886</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>6</v>
+        <v>0.09702122388810236</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.04777490985483288</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2596973113.088367</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>5433908715.071441</v>
+        <v>3105714184.946878</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003341097599460457</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1583568377829654</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02384707118210284</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>15</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1552857173.764238</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>7086831181.493237</v>
+        <v>3282777084.285531</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003904757473614649</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61" t="n">
-        <v>11</v>
+        <v>0.1637225442209774</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.03085365573829178</v>
+      </c>
+      <c r="H61" t="b">
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>16</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1641388495.797519</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4716759249.727279</v>
+        <v>1984605320.179341</v>
       </c>
       <c r="F62" t="n">
-        <v>0.003411064838349939</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>9</v>
+        <v>0.1925656206189895</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.03867660260461221</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>992302715.7183201</v>
       </c>
     </row>
     <row r="63">
@@ -2191,19 +2567,25 @@
         <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8844341193.324587</v>
+        <v>5524210312.059514</v>
       </c>
       <c r="F63" t="n">
-        <v>0.00460973648641172</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>12</v>
+        <v>0.07480417801087519</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.03437357674495885</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2762105150.256173</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5322722737.866388</v>
+        <v>5350598666.632178</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004916193744938112</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1912510614413012</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.03011123589283802</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>15</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2675299464.031092</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>6312008509.431681</v>
+        <v>5219590478.171824</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00454404099477385</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>12</v>
+        <v>0.1108756544825592</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02886002106987277</v>
+      </c>
+      <c r="H65" t="b">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>17</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2609795184.773252</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>6003863250.321204</v>
+        <v>4544518520.21359</v>
       </c>
       <c r="F66" t="n">
-        <v>0.003962174657795671</v>
-      </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>9</v>
+        <v>0.1111341838511263</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0453791846646056</v>
+      </c>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2272259262.716877</v>
       </c>
     </row>
     <row r="67">
@@ -2303,19 +2703,25 @@
         <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>6450848019.499568</v>
+        <v>3013970655.325135</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004213045692420722</v>
-      </c>
-      <c r="G67" t="b">
+        <v>0.1031516568206493</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.03944716508614418</v>
+      </c>
+      <c r="H67" t="b">
         <v>1</v>
       </c>
-      <c r="H67" t="n">
-        <v>8</v>
+      <c r="I67" t="n">
+        <v>15</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1506985344.616709</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6432146719.593216</v>
+        <v>4268515217.223505</v>
       </c>
       <c r="F68" t="n">
-        <v>0.002873610697219486</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>10</v>
+        <v>0.1428740509771479</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.04729196475382099</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>15</v>
+      </c>
+      <c r="J68" t="n">
+        <v>2134257620.539998</v>
       </c>
     </row>
     <row r="69">
@@ -2359,19 +2771,25 @@
         <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>5411346687.388067</v>
+        <v>2216994588.570124</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0009514905681510912</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>9</v>
+        <v>0.1549246992271221</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.04177189084543052</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1108497327.147887</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5563124989.792084</v>
+        <v>2518741913.87933</v>
       </c>
       <c r="F70" t="n">
-        <v>0.002731370448641028</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
+        <v>0.09458104274986878</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03804813195801799</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>13</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1259370902.491878</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3271457677.308187</v>
+        <v>4292402664.755879</v>
       </c>
       <c r="F71" t="n">
-        <v>0.002718896524509403</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1429139170944196</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02467167131195443</v>
+      </c>
+      <c r="H71" t="b">
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>17</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2146201385.137158</v>
       </c>
     </row>
     <row r="72">
@@ -2443,19 +2873,25 @@
         <v>2</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>5196542777.214442</v>
+        <v>1883657499.508386</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001823491647545009</v>
-      </c>
-      <c r="G72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>10</v>
+        <v>0.08224258218095444</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.04279107665982109</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>941828714.7038493</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
-        <v>480</v>
+        <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>8038990875.969222</v>
+        <v>3378938881.109092</v>
       </c>
       <c r="F73" t="n">
-        <v>0.001165953552195307</v>
-      </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
+        <v>0.0710274111981809</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.04325476707443547</v>
+      </c>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>19</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1689469401.734049</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>5159035111.261926</v>
+        <v>3622200228.038016</v>
       </c>
       <c r="F74" t="n">
-        <v>0.004078713686850997</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>10</v>
+        <v>0.141651395276376</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.02489120035167374</v>
+      </c>
+      <c r="H74" t="b">
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>16</v>
+      </c>
+      <c r="J74" t="n">
+        <v>1811100125.520933</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>5585004060.8491</v>
+        <v>2382079527.250169</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003875086376223116</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>9</v>
+        <v>0.1530100709492225</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.03393644200748217</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1191039691.83889</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5144023059.027356</v>
+        <v>4827032621.181325</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002660567744853048</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.1125859636997104</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02765851986253963</v>
+      </c>
+      <c r="H76" t="b">
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
         <v>10</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2413516329.879864</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>6474739760.475456</v>
+        <v>2227225109.155486</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005959261040645701</v>
-      </c>
-      <c r="G77" t="b">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>16</v>
+        <v>0.1825126073886011</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.0238360256987472</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1113612649.523707</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>5450965385.458835</v>
+        <v>4511330064.472371</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004121383780189662</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>10</v>
+        <v>0.135039580280984</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0487333917825187</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>17</v>
+      </c>
+      <c r="J78" t="n">
+        <v>2255664961.151715</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>5766585326.496857</v>
+        <v>1408399112.272413</v>
       </c>
       <c r="F79" t="n">
-        <v>0.002234645562961789</v>
-      </c>
-      <c r="G79" t="b">
-        <v>0</v>
-      </c>
-      <c r="H79" t="n">
-        <v>10</v>
+        <v>0.1562464395199159</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.03112150712213468</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>704199574.1417294</v>
       </c>
     </row>
     <row r="80">
@@ -2667,19 +3145,25 @@
         <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6305260495.962123</v>
+        <v>5255546979.577707</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003149411689837858</v>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="n">
-        <v>14</v>
+        <v>0.09696321148108099</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.02527427699947049</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>10</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2627773551.547366</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
+        <v>4</v>
+      </c>
+      <c r="D81" t="n">
+        <v>414</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3361491025.443399</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.1034217974340518</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.03244754062864486</v>
+      </c>
+      <c r="H81" t="b">
         <v>1</v>
       </c>
-      <c r="D81" t="n">
-        <v>427</v>
-      </c>
-      <c r="E81" t="n">
-        <v>6218621739.566962</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0.005104532993977806</v>
-      </c>
-      <c r="G81" t="b">
-        <v>1</v>
-      </c>
-      <c r="H81" t="n">
-        <v>8</v>
+      <c r="I81" t="n">
+        <v>10</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1680745452.019209</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>7523931511.119097</v>
+        <v>3915667778.209612</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004905401493870903</v>
-      </c>
-      <c r="G82" t="b">
-        <v>0</v>
-      </c>
-      <c r="H82" t="n">
-        <v>9</v>
+        <v>0.1404540198471246</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02864923954265475</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>17</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1957833933.451073</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +3244,28 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>8289788245.373947</v>
+        <v>2064218428.688914</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003128472305614236</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>12</v>
+        <v>0.1141525565051003</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03276227199568706</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1032109207.51131</v>
       </c>
     </row>
     <row r="84">
@@ -2779,19 +3281,25 @@
         <v>2</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>7363226886.737049</v>
+        <v>2329685715.614161</v>
       </c>
       <c r="F84" t="n">
-        <v>0.005004799608123794</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>13</v>
+        <v>0.1177621664472578</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.03747454704971664</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1164842814.404896</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>4169020787.933837</v>
+        <v>2542863027.992601</v>
       </c>
       <c r="F85" t="n">
-        <v>0.002505442998459987</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1852660662575041</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.03994152871907549</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>18</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1271431523.537041</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
+        <v>4</v>
+      </c>
+      <c r="D86" t="n">
+        <v>502</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2777218667.763228</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.1413651703619538</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02702070737628268</v>
+      </c>
+      <c r="H86" t="b">
         <v>1</v>
       </c>
-      <c r="D86" t="n">
-        <v>517</v>
-      </c>
-      <c r="E86" t="n">
-        <v>5805102204.542109</v>
-      </c>
-      <c r="F86" t="n">
-        <v>0.001991348452139096</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>14</v>
+      <c r="I86" t="n">
+        <v>4</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1388609469.440838</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>5</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>5089558015.748496</v>
+        <v>1507800255.801505</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001579169931606474</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1796663591066811</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.04167148131730361</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>753900262.2300618</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>7980532120.719163</v>
+        <v>2492455192.015611</v>
       </c>
       <c r="F88" t="n">
-        <v>0.00389404629534725</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>11</v>
+        <v>0.1785968751804451</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02966331009148162</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>18</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1246227576.18169</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>6771673963.398365</v>
+        <v>2641111578.193439</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004712584516761762</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>10</v>
+        <v>0.1484274552469962</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.02814463229564733</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1320555853.376348</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>6919749784.333131</v>
+        <v>1448372624.660952</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003619847776369173</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>9</v>
+        <v>0.1084732143089482</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.03394200593031008</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>724186281.4827535</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>7347574130.847752</v>
+        <v>2015930150.391387</v>
       </c>
       <c r="F91" t="n">
-        <v>0.003903546060891478</v>
-      </c>
-      <c r="G91" t="b">
-        <v>1</v>
-      </c>
-      <c r="H91" t="n">
-        <v>14</v>
+        <v>0.1217440963509798</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.06196999897043775</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1007965045.187838</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>4210487578.728723</v>
+        <v>2019540324.82982</v>
       </c>
       <c r="F92" t="n">
-        <v>0.003623675362379435</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.06675142757521418</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.03540055380713301</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>12</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1009770109.914037</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5858000954.260479</v>
+        <v>5026733711.587257</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001689761948506329</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>17</v>
+        <v>0.1233243896445855</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.04930676437909804</v>
+      </c>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>14</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2513366789.868139</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3618,28 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>5475990020.083904</v>
+        <v>2411561182.014729</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001532295602163775</v>
-      </c>
-      <c r="G94" t="b">
-        <v>0</v>
-      </c>
-      <c r="H94" t="n">
-        <v>15</v>
+        <v>0.1465243417604068</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02626298945215222</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1205780642.813423</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>5837847949.612991</v>
+        <v>2059091045.710364</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002762467360310013</v>
-      </c>
-      <c r="G95" t="b">
-        <v>1</v>
-      </c>
-      <c r="H95" t="n">
-        <v>12</v>
+        <v>0.1089956016298391</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.04094471762010106</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>11</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1029545590.835058</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>8440928527.848002</v>
+        <v>1917124855.404515</v>
       </c>
       <c r="F96" t="n">
-        <v>0.002328762957659913</v>
-      </c>
-      <c r="G96" t="b">
-        <v>0</v>
-      </c>
-      <c r="H96" t="n">
-        <v>13</v>
+        <v>0.1008246106389769</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.03804712750015657</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>958562423.3869401</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>3</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>7668871947.90505</v>
+        <v>3248366542.771069</v>
       </c>
       <c r="F97" t="n">
-        <v>0.005477355536626996</v>
-      </c>
-      <c r="G97" t="b">
+        <v>0.1512973706422025</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.02797100853424121</v>
+      </c>
+      <c r="H97" t="b">
         <v>1</v>
       </c>
-      <c r="H97" t="n">
-        <v>12</v>
+      <c r="I97" t="n">
+        <v>15</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1624183267.185009</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
-        <v>616</v>
+        <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>9007703023.263672</v>
+        <v>3231901078.478557</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003412366271633701</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>18</v>
+        <v>0.08714121027742849</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.02088908869083893</v>
+      </c>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1615950539.515214</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3663172468.33073</v>
+        <v>2610185587.700368</v>
       </c>
       <c r="F99" t="n">
-        <v>0.005549203972434417</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1172671148842868</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03350267583581544</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>14</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1305092751.424202</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>5147879708.350522</v>
+        <v>3171968730.333383</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003671141225663531</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>5</v>
+        <v>0.132392250988815</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.01933401389037388</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>15</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1585984369.628307</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>8161851209.947304</v>
+        <v>2895198742.414308</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001304701378691035</v>
-      </c>
-      <c r="G101" t="b">
-        <v>1</v>
-      </c>
-      <c r="H101" t="n">
-        <v>15</v>
+        <v>0.1841026338629443</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.05229842802234833</v>
+      </c>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>20</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1447599446.280687</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_48.xlsx
+++ b/output/fit_clients/fit_round_48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1628906441.78511</v>
+        <v>1980275945.700751</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06912722687220148</v>
+        <v>0.07648851673208491</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03581833036070008</v>
+        <v>0.03041862940008603</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>814453166.5097584</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2166643478.034287</v>
+        <v>1991292849.269948</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1368040345389804</v>
+        <v>0.1408350322348465</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04651113286501938</v>
+        <v>0.04685222179430004</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1083321804.746009</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4149513251.229019</v>
+        <v>4171589489.944028</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1252467503128922</v>
+        <v>0.1079179342044583</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03110648026798945</v>
+        <v>0.03085840198893923</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2074756650.240275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3398186194.377799</v>
+        <v>3806461789.331429</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07521152096598531</v>
+        <v>0.1051639829901473</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03521373927981387</v>
+        <v>0.03091155660577656</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1699093140.56761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2081038071.215661</v>
+        <v>2361102941.041623</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1052960112500023</v>
+        <v>0.1152123686305834</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04863243844657009</v>
+        <v>0.05176338334818559</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1040519056.264004</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3123721245.876552</v>
+        <v>2205959109.203464</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07274055946489975</v>
+        <v>0.08051610097252875</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03428804428377793</v>
+        <v>0.03143680388501009</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1561860575.790529</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2401899025.323489</v>
+        <v>2956064431.556411</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1709272660885908</v>
+        <v>0.1945887903649073</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02894617076312686</v>
+        <v>0.02396586510179131</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1200949508.933029</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1546062754.027742</v>
+        <v>2254555955.174944</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1986492525085516</v>
+        <v>0.1909391182802175</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02650224362893983</v>
+        <v>0.02748210477341512</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>773031466.4874932</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3585409866.182633</v>
+        <v>3662392993.170679</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1891090722448572</v>
+        <v>0.1876826428420228</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03413391228508839</v>
+        <v>0.04125996888747803</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>20</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1792704922.741284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4076453539.571979</v>
+        <v>4082729434.451245</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1260564737622637</v>
+        <v>0.1901611053371312</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03038711261519524</v>
+        <v>0.04658292089028812</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>20</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2038226787.676139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2200525663.428184</v>
+        <v>2910291093.63501</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1964714300099115</v>
+        <v>0.1856791773028139</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03716631979701392</v>
+        <v>0.05297137966128634</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>17</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1100262776.370675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4392480564.282451</v>
+        <v>3848442467.5991</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06371166497453536</v>
+        <v>0.08030881333777351</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02209400617718283</v>
+        <v>0.02014101086445368</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>17</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2196240317.001342</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3834840814.878356</v>
+        <v>3296013774.033703</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1578381145745765</v>
+        <v>0.1588964799112268</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04366560649666244</v>
+        <v>0.03710808620602776</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>16</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1917420381.321002</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1165907418.221705</v>
+        <v>1338177588.114134</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08638155686805546</v>
+        <v>0.1067283081532299</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03947542544810431</v>
+        <v>0.04454539536503783</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>582953718.7302561</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2708595611.208366</v>
+        <v>2527293364.212389</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09359515330731991</v>
+        <v>0.07050083045657629</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03518790518932823</v>
+        <v>0.05189322881825252</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1354297817.627044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3435393291.839063</v>
+        <v>4988988735.110687</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1534933543328219</v>
+        <v>0.1525379711917887</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03996964044515715</v>
+        <v>0.04244802307742652</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>14</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1717696708.280569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2583671732.00173</v>
+        <v>2674718940.376378</v>
       </c>
       <c r="F18" t="n">
-        <v>0.168355879830101</v>
+        <v>0.1173084793967687</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03435240269499019</v>
+        <v>0.03059810715300839</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>16</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1291835926.244333</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1288091570.814742</v>
+        <v>892374627.9891016</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1632445370797061</v>
+        <v>0.1209240596811749</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01810904445179418</v>
+        <v>0.02704395073299965</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>644045884.6673814</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2568710109.196678</v>
+        <v>1971187553.700472</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1607889767925955</v>
+        <v>0.1299881608122167</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02669636851070305</v>
+        <v>0.02792136761873924</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1284355020.232208</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2244545831.604032</v>
+        <v>2518250186.739911</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06797917352240686</v>
+        <v>0.08173014897921135</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02822299455019753</v>
+        <v>0.03278113287115073</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1122272928.241055</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3548610745.215582</v>
+        <v>4050439800.559024</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1084729551281747</v>
+        <v>0.1006367912154533</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05234723722276738</v>
+        <v>0.04564067253318851</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>13</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1774305401.136671</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1238555448.967256</v>
+        <v>1421790176.223272</v>
       </c>
       <c r="F23" t="n">
-        <v>0.183161459189205</v>
+        <v>0.1726400577333733</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0402900340867618</v>
+        <v>0.03523002416488399</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>619277754.3492016</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3472835882.055067</v>
+        <v>4132034668.479312</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09343860972041583</v>
+        <v>0.1423251297629927</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02686327559704033</v>
+        <v>0.02280397507818008</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>15</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1736417944.34523</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1269782167.976822</v>
+        <v>1233411157.989456</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07609441730553523</v>
+        <v>0.08620644170697234</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02332096156944108</v>
+        <v>0.02890939634081454</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>634891085.768598</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1032917112.766979</v>
+        <v>1378879547.678488</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1148698272607579</v>
+        <v>0.1193999247485322</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03785099684224394</v>
+        <v>0.02995624150212504</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>516458536.3378302</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4207844800.213884</v>
+        <v>3892732175.788655</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1246686124119236</v>
+        <v>0.1186418710416016</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01839289341092105</v>
+        <v>0.0170221411096704</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>11</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2103922399.780449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2906323084.140073</v>
+        <v>3048327438.938234</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09303843021289432</v>
+        <v>0.1521773126216616</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03197919749388948</v>
+        <v>0.03697944080776521</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1453161545.031179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5496333229.949493</v>
+        <v>3682010746.776234</v>
       </c>
       <c r="F29" t="n">
-        <v>0.118668864170103</v>
+        <v>0.1061410174996921</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04510641655822322</v>
+        <v>0.03958620691947357</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>21</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2748166527.9594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1625698086.256919</v>
+        <v>1864901794.720671</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1382923754251186</v>
+        <v>0.1198321293979104</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04026713430348961</v>
+        <v>0.02749190042172203</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>812849037.8653173</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1470891332.48697</v>
+        <v>1303391077.584909</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09226653836694622</v>
+        <v>0.1040062028534425</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05221827871662514</v>
+        <v>0.03479414613249239</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>735445553.8361117</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1529888197.783662</v>
+        <v>1893582914.643335</v>
       </c>
       <c r="F32" t="n">
-        <v>0.103325159205266</v>
+        <v>0.09999643365439058</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02558362004889218</v>
+        <v>0.03114398448089198</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>764944173.3150986</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2168533206.817657</v>
+        <v>2005735094.893093</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1676146754986449</v>
+        <v>0.1503476368359364</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04005768090345171</v>
+        <v>0.04665190854159418</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>14</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1084266669.704171</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1494641778.397998</v>
+        <v>1524598922.121468</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09718647730830282</v>
+        <v>0.09433021337531938</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01899745097101162</v>
+        <v>0.02732047626979644</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>747320845.8259915</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>830677394.8169578</v>
+        <v>861671058.5053444</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09755969352441556</v>
+        <v>0.1031196637903827</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03489384629363776</v>
+        <v>0.0327678306016889</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>415338752.9963435</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2783676957.079515</v>
+        <v>3195831451.100169</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1443094393476078</v>
+        <v>0.1625476491460093</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02387246168590682</v>
+        <v>0.02810093211364888</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>12</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1391838477.637996</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2255915270.250241</v>
+        <v>2631226647.695745</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08991704135874107</v>
+        <v>0.112351656806278</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03913274891504259</v>
+        <v>0.02978564754963854</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>13</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1127957697.466472</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1599748368.158107</v>
+        <v>1327563565.325329</v>
       </c>
       <c r="F38" t="n">
-        <v>0.120706352752561</v>
+        <v>0.1025465884108088</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02455974202778262</v>
+        <v>0.02882115799064391</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>799874219.0989739</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2104481968.355229</v>
+        <v>1943828638.801085</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1810276251854441</v>
+        <v>0.1446188193576707</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02446283570689279</v>
+        <v>0.02454544062654312</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1052240962.699063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1358727417.088806</v>
+        <v>1417522749.819239</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1567881002129544</v>
+        <v>0.1103358285989053</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04437545072542819</v>
+        <v>0.05327917764440435</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>679363709.9836581</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2780816008.450063</v>
+        <v>2531605600.008129</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1443611634158008</v>
+        <v>0.1440559609453441</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04322070776158522</v>
+        <v>0.03084668341382076</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>12</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1390408001.856329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2966856881.304599</v>
+        <v>4145223302.885281</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09108848956987879</v>
+        <v>0.07974369929039463</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03766850089692247</v>
+        <v>0.04642365248785196</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>16</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1483428398.628255</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2367325333.357246</v>
+        <v>2631110863.459191</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2042612467455426</v>
+        <v>0.1791722739416598</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01950347358872553</v>
+        <v>0.02057808730024303</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>16</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1183662728.519565</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1795823885.024128</v>
+        <v>2104599605.11881</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06964835539515722</v>
+        <v>0.07892999896286412</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03203858805047252</v>
+        <v>0.02884085779051047</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>897912007.9759519</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2457008716.517029</v>
+        <v>2238324350.596212</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1275857304238417</v>
+        <v>0.1299355853124837</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04404403186579163</v>
+        <v>0.05069913791189566</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1228504394.990251</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3877838435.667708</v>
+        <v>4648236383.363283</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1682538146816755</v>
+        <v>0.1489226219961067</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0440590127427386</v>
+        <v>0.05077860601250406</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>17</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1938919180.227813</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4734284861.757113</v>
+        <v>3725879071.640368</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1931418654235925</v>
+        <v>0.1742282527264583</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05703384200701148</v>
+        <v>0.05747659969621353</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>13</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2367142471.523119</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3346484149.320603</v>
+        <v>4638163137.123184</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07863058159175114</v>
+        <v>0.1070478878545492</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02932326548175549</v>
+        <v>0.03354636383428825</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>16</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1673242146.88309</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1218990147.238773</v>
+        <v>1530891650.999476</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1842146912678737</v>
+        <v>0.1769258811886329</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03049087021140502</v>
+        <v>0.04166324335054402</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>609495149.2223085</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4218091914.743018</v>
+        <v>3798647181.076207</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1755825727816265</v>
+        <v>0.1347553964919592</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04099867406488466</v>
+        <v>0.051505205605127</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>16</v>
-      </c>
-      <c r="J50" t="n">
-        <v>2109045930.365003</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1533734077.112543</v>
+        <v>1274496566.491936</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1652944289001345</v>
+        <v>0.1922973381617526</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0433314958511723</v>
+        <v>0.0377430537787007</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>766867035.8864118</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3590742220.114519</v>
+        <v>3981876302.106996</v>
       </c>
       <c r="F52" t="n">
-        <v>0.113259752499838</v>
+        <v>0.08932693486705873</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05117780686369132</v>
+        <v>0.05263560647668935</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>20</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1795371190.488954</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3375460730.121506</v>
+        <v>2900171291.847349</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1407733208195095</v>
+        <v>0.1321199914227579</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03182269088136925</v>
+        <v>0.02797785703850847</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>14</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1687730371.426672</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3742938464.957261</v>
+        <v>3248640398.801668</v>
       </c>
       <c r="F54" t="n">
-        <v>0.118777763366741</v>
+        <v>0.146185103766436</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04070134493951066</v>
+        <v>0.04252496899266425</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>16</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1871469276.242656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3646470813.47163</v>
+        <v>4421401309.963929</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1359369818008436</v>
+        <v>0.1558515914030568</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02958617750037498</v>
+        <v>0.020765924960822</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1823235365.943401</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1736747962.749889</v>
+        <v>1748343504.610746</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1554961436106789</v>
+        <v>0.1510259743980823</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04633658513481798</v>
+        <v>0.05007773925720977</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>868373988.4577147</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2825146854.071741</v>
+        <v>4112879086.946632</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1540047052347729</v>
+        <v>0.1808464157408953</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02062103086403954</v>
+        <v>0.02320434151503826</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>15</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1412573416.636237</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1360165882.707707</v>
+        <v>1807809264.754471</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1384598311665764</v>
+        <v>0.162409530200387</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02641273235009016</v>
+        <v>0.02496606227565384</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>680082985.1156627</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5193946389.789223</v>
+        <v>3749566765.354905</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09702122388810236</v>
+        <v>0.1048530806305838</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04777490985483288</v>
+        <v>0.04508412003370752</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2596973113.088367</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3105714184.946878</v>
+        <v>2981838528.107409</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1583568377829654</v>
+        <v>0.1593132895015302</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02384707118210284</v>
+        <v>0.02236065102758432</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>15</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1552857173.764238</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3282777084.285531</v>
+        <v>2471443578.500471</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1637225442209774</v>
+        <v>0.1203463965304297</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03085365573829178</v>
+        <v>0.02129240009555237</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>16</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1641388495.797519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1984605320.179341</v>
+        <v>1793600653.511614</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1925656206189895</v>
+        <v>0.1173795713700458</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03867660260461221</v>
+        <v>0.04740854538056342</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>992302715.7183201</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5524210312.059514</v>
+        <v>4825841328.720427</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07480417801087519</v>
+        <v>0.06588882053990072</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03437357674495885</v>
+        <v>0.03500364743182072</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>14</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2762105150.256173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5350598666.632178</v>
+        <v>3581660040.28091</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1912510614413012</v>
+        <v>0.1773977071422427</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03011123589283802</v>
+        <v>0.02512183632021744</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>15</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2675299464.031092</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5219590478.171824</v>
+        <v>5524017033.985774</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1108756544825592</v>
+        <v>0.1233164686550853</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02886002106987277</v>
+        <v>0.02312567078458048</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>17</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2609795184.773252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4544518520.21359</v>
+        <v>5428386693.414401</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1111341838511263</v>
+        <v>0.1464219390106395</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0453791846646056</v>
+        <v>0.04594276057246269</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>14</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2272259262.716877</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3013970655.325135</v>
+        <v>2112600038.57166</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1031516568206493</v>
+        <v>0.1014360917563284</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03944716508614418</v>
+        <v>0.04025945834036818</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>15</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1506985344.616709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4268515217.223505</v>
+        <v>5036555269.430774</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1428740509771479</v>
+        <v>0.1398001606130014</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04729196475382099</v>
+        <v>0.03603664185465516</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>15</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2134257620.539998</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2216994588.570124</v>
+        <v>2146526819.416582</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1549246992271221</v>
+        <v>0.1200346674761266</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04177189084543052</v>
+        <v>0.04948524765104607</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1108497327.147887</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2518741913.87933</v>
+        <v>3359371099.13422</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09458104274986878</v>
+        <v>0.08061591204442774</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03804813195801799</v>
+        <v>0.04272539277412177</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>13</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1259370902.491878</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4292402664.755879</v>
+        <v>5621548042.888333</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1429139170944196</v>
+        <v>0.1280809563784361</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02467167131195443</v>
+        <v>0.02766692126627899</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>17</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2146201385.137158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1883657499.508386</v>
+        <v>1733679695.402818</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08224258218095444</v>
+        <v>0.08551042674599622</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04279107665982109</v>
+        <v>0.03390228192124203</v>
       </c>
       <c r="H72" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>941828714.7038493</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3378938881.109092</v>
+        <v>2673677330.616071</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0710274111981809</v>
+        <v>0.09679861156721596</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04325476707443547</v>
+        <v>0.04757025034368097</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1689469401.734049</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3622200228.038016</v>
+        <v>3295813434.003707</v>
       </c>
       <c r="F74" t="n">
-        <v>0.141651395276376</v>
+        <v>0.1769232580004665</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02489120035167374</v>
+        <v>0.0306983784668101</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>16</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1811100125.520933</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2382079527.250169</v>
+        <v>1851864198.848464</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1530100709492225</v>
+        <v>0.1319882445004161</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03393644200748217</v>
+        <v>0.02754213213057089</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1191039691.83889</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4827032621.181325</v>
+        <v>4653957103.371895</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1125859636997104</v>
+        <v>0.1081381447106158</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02765851986253963</v>
+        <v>0.02219817940352349</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>10</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2413516329.879864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2227225109.155486</v>
+        <v>2241134213.51019</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1825126073886011</v>
+        <v>0.1812437034473422</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0238360256987472</v>
+        <v>0.02286588123010594</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1113612649.523707</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4511330064.472371</v>
+        <v>4483418213.531599</v>
       </c>
       <c r="F78" t="n">
-        <v>0.135039580280984</v>
+        <v>0.1316960491260033</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0487333917825187</v>
+        <v>0.04104818094761118</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>17</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2255664961.151715</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1408399112.272413</v>
+        <v>1380190540.421549</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1562464395199159</v>
+        <v>0.1616343039772624</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03112150712213468</v>
+        <v>0.030595094868485</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>704199574.1417294</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5255546979.577707</v>
+        <v>4302934983.132457</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09696321148108099</v>
+        <v>0.09788948387362745</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02527427699947049</v>
+        <v>0.02695770031069246</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>10</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2627773551.547366</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3361491025.443399</v>
+        <v>3892711233.260856</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1034217974340518</v>
+        <v>0.1201519374003134</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03244754062864486</v>
+        <v>0.02897626112832572</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>10</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1680745452.019209</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3915667778.209612</v>
+        <v>3641290915.714395</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1404540198471246</v>
+        <v>0.2163860585184435</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02864923954265475</v>
+        <v>0.02269549409833928</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>17</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1957833933.451073</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2064218428.688914</v>
+        <v>1683555826.440574</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1141525565051003</v>
+        <v>0.1480491607020858</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03276227199568706</v>
+        <v>0.0328350355486117</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1032109207.51131</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2329685715.614161</v>
+        <v>2261872947.622213</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1177621664472578</v>
+        <v>0.08488129700807123</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03747454704971664</v>
+        <v>0.03232008300677961</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1164842814.404896</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2542863027.992601</v>
+        <v>3095681623.942315</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1852660662575041</v>
+        <v>0.1380522778017986</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03994152871907549</v>
+        <v>0.03966347588857622</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1271431523.537041</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2777218667.763228</v>
+        <v>2091753742.359572</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1413651703619538</v>
+        <v>0.1205490817245472</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02702070737628268</v>
+        <v>0.01881898856243351</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>4</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1388609469.440838</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1507800255.801505</v>
+        <v>1035209817.685556</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1796663591066811</v>
+        <v>0.1179193433520859</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04167148131730361</v>
+        <v>0.0420665536052086</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>753900262.2300618</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2492455192.015611</v>
+        <v>3213609985.224434</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1785968751804451</v>
+        <v>0.1524717368118753</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02966331009148162</v>
+        <v>0.03858217800364213</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>18</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1246227576.18169</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2641111578.193439</v>
+        <v>2935454123.943136</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1484274552469962</v>
+        <v>0.1355187396473528</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02814463229564733</v>
+        <v>0.03269325714477628</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>17</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1320555853.376348</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1448372624.660952</v>
+        <v>2086510659.077067</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1084732143089482</v>
+        <v>0.09839270759826635</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03394200593031008</v>
+        <v>0.053437936778998</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>724186281.4827535</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2015930150.391387</v>
+        <v>1459406149.260456</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1217440963509798</v>
+        <v>0.1692401433796987</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06196999897043775</v>
+        <v>0.05686599964233688</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1007965045.187838</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2019540324.82982</v>
+        <v>2567097725.477957</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06675142757521418</v>
+        <v>0.07721575797611836</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03540055380713301</v>
+        <v>0.04269937106193812</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>12</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1009770109.914037</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5026733711.587257</v>
+        <v>4193242350.902246</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1233243896445855</v>
+        <v>0.1134615198852595</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04930676437909804</v>
+        <v>0.04480485033256847</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>14</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2513366789.868139</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2411561182.014729</v>
+        <v>2309328950.775432</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1465243417604068</v>
+        <v>0.1406327208083182</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02626298945215222</v>
+        <v>0.04318224660616246</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1205780642.813423</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2059091045.710364</v>
+        <v>2923496889.498503</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1089956016298391</v>
+        <v>0.1265475323883839</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04094471762010106</v>
+        <v>0.04909277281143051</v>
       </c>
       <c r="H95" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>11</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1029545590.835058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1917124855.404515</v>
+        <v>2058980716.849159</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1008246106389769</v>
+        <v>0.1030525896183243</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03804712750015657</v>
+        <v>0.03387383334380851</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>958562423.3869401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3248366542.771069</v>
+        <v>3981578593.749291</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1512973706422025</v>
+        <v>0.1187429722861415</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02797100853424121</v>
+        <v>0.02814750964320313</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>15</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1624183267.185009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3231901078.478557</v>
+        <v>3435632676.677386</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08714121027742849</v>
+        <v>0.1051595828440928</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02088908869083893</v>
+        <v>0.02186479220556169</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1615950539.515214</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2610185587.700368</v>
+        <v>2595855830.889327</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1172671148842868</v>
+        <v>0.139946338556229</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03350267583581544</v>
+        <v>0.03107022384442153</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>14</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1305092751.424202</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3171968730.333383</v>
+        <v>4554595619.973867</v>
       </c>
       <c r="F100" t="n">
-        <v>0.132392250988815</v>
+        <v>0.1202291275572251</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01933401389037388</v>
+        <v>0.02334911887646846</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1585984369.628307</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2895198742.414308</v>
+        <v>3297859855.096183</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1841026338629443</v>
+        <v>0.2107461279503692</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05229842802234833</v>
+        <v>0.04089137159994709</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>20</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1447599446.280687</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_48.xlsx
+++ b/output/fit_clients/fit_round_48.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1980275945.700751</v>
+        <v>1737917967.009261</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07648851673208491</v>
+        <v>0.0732024020322791</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03041862940008603</v>
+        <v>0.02988009865124219</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1991292849.269948</v>
+        <v>2068450718.34306</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1408350322348465</v>
+        <v>0.1773123493975661</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04685222179430004</v>
+        <v>0.04569510249123201</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4171589489.944028</v>
+        <v>4368246409.853991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1079179342044583</v>
+        <v>0.1039972060299302</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03085840198893923</v>
+        <v>0.03441513820276924</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3806461789.331429</v>
+        <v>2852842380.481528</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1051639829901473</v>
+        <v>0.09660546016440914</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03091155660577656</v>
+        <v>0.04118363178244387</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2361102941.041623</v>
+        <v>2628317759.664845</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1152123686305834</v>
+        <v>0.09689449529241276</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05176338334818559</v>
+        <v>0.04718980894565467</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2205959109.203464</v>
+        <v>2793068252.858055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08051610097252875</v>
+        <v>0.08591656900950745</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03143680388501009</v>
+        <v>0.03520545591708113</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2956064431.556411</v>
+        <v>3589812027.711998</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1945887903649073</v>
+        <v>0.172402857921745</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02396586510179131</v>
+        <v>0.02131298841311585</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2254555955.174944</v>
+        <v>1794746284.302444</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1909391182802175</v>
+        <v>0.1826621136760728</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02748210477341512</v>
+        <v>0.02934422508153847</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3662392993.170679</v>
+        <v>5517853951.916553</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1876826428420228</v>
+        <v>0.149902878874555</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04125996888747803</v>
+        <v>0.04804840653481453</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4082729434.451245</v>
+        <v>3289628473.029351</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1901611053371312</v>
+        <v>0.1841556866241997</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04658292089028812</v>
+        <v>0.03892519742113169</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2910291093.63501</v>
+        <v>3234240554.189042</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1856791773028139</v>
+        <v>0.1583322830767341</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05297137966128634</v>
+        <v>0.04188462399981542</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3848442467.5991</v>
+        <v>4208671023.936669</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08030881333777351</v>
+        <v>0.07172957099948316</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02014101086445368</v>
+        <v>0.02483510451206403</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -822,13 +822,13 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3296013774.033703</v>
+        <v>2734633484.228417</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1588964799112268</v>
+        <v>0.1217228680706212</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03710808620602776</v>
+        <v>0.03542288217643866</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1338177588.114134</v>
+        <v>1168791070.06053</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1067283081532299</v>
+        <v>0.07834942706750272</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04454539536503783</v>
+        <v>0.04805700159315051</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2527293364.212389</v>
+        <v>2558971531.022859</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07050083045657629</v>
+        <v>0.1046223455023878</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05189322881825252</v>
+        <v>0.04491515080704908</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4988988735.110687</v>
+        <v>4967447484.510389</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1525379711917887</v>
+        <v>0.1681014024458553</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04244802307742652</v>
+        <v>0.04122757401968323</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2674718940.376378</v>
+        <v>2597453212.354134</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1173084793967687</v>
+        <v>0.1743692556338819</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03059810715300839</v>
+        <v>0.0246385413668345</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,22 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>892374627.9891016</v>
+        <v>841212256.1421486</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1209240596811749</v>
+        <v>0.1538897804574346</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02704395073299965</v>
+        <v>0.02155665009215029</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1971187553.700472</v>
+        <v>2099711077.228121</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1299881608122167</v>
+        <v>0.1532543306107334</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02792136761873924</v>
+        <v>0.0288545265150053</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2518250186.739911</v>
+        <v>2205938585.156022</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08173014897921135</v>
+        <v>0.06260267115043093</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03278113287115073</v>
+        <v>0.03119161955360357</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4050439800.559024</v>
+        <v>3748732973.690586</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1006367912154533</v>
+        <v>0.1059470868899274</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04564067253318851</v>
+        <v>0.05358230551255142</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1421790176.223272</v>
+        <v>1155667200.832437</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1726400577333733</v>
+        <v>0.1357445792666646</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03523002416488399</v>
+        <v>0.05140542457161709</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4132034668.479312</v>
+        <v>3829656927.434143</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1423251297629927</v>
+        <v>0.1319492490580983</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02280397507818008</v>
+        <v>0.02713488490142264</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1233411157.989456</v>
+        <v>1337362493.219131</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08620644170697234</v>
+        <v>0.1157775737857267</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02890939634081454</v>
+        <v>0.02891667223195511</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1378879547.678488</v>
+        <v>1131939124.814076</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1193999247485322</v>
+        <v>0.1030982974538721</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02995624150212504</v>
+        <v>0.02953041091346264</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3892732175.788655</v>
+        <v>3048644349.154492</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1186418710416016</v>
+        <v>0.1406743638603933</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0170221411096704</v>
+        <v>0.02428574376590653</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3048327438.938234</v>
+        <v>3585258346.643733</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1521773126216616</v>
+        <v>0.1477114338939229</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03697944080776521</v>
+        <v>0.04182864009088579</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3682010746.776234</v>
+        <v>5902409822.324246</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1061410174996921</v>
+        <v>0.130143416183243</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03958620691947357</v>
+        <v>0.02833264587784127</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1864901794.720671</v>
+        <v>2003526683.947876</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1198321293979104</v>
+        <v>0.1018039497789167</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02749190042172203</v>
+        <v>0.03189956332536749</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1303391077.584909</v>
+        <v>1192852262.045016</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1040062028534425</v>
+        <v>0.09780537027401111</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03479414613249239</v>
+        <v>0.03858472566651331</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1893582914.643335</v>
+        <v>1251721352.620639</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09999643365439058</v>
+        <v>0.08901603928373625</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03114398448089198</v>
+        <v>0.03397806625653819</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2005735094.893093</v>
+        <v>2251975369.404873</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1503476368359364</v>
+        <v>0.1731622437195008</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04665190854159418</v>
+        <v>0.05387383269005022</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1524598922.121468</v>
+        <v>1344945437.271348</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09433021337531938</v>
+        <v>0.1056778051159839</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02732047626979644</v>
+        <v>0.02635973360594133</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>861671058.5053444</v>
+        <v>1057866146.295575</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1031196637903827</v>
+        <v>0.1183082033905552</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0327678306016889</v>
+        <v>0.03557090780226364</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3195831451.100169</v>
+        <v>2979390342.879185</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1625476491460093</v>
+        <v>0.1548198365925482</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02810093211364888</v>
+        <v>0.02416498234909095</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2631226647.695745</v>
+        <v>2255775515.758927</v>
       </c>
       <c r="F37" t="n">
-        <v>0.112351656806278</v>
+        <v>0.06930683756311494</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02978564754963854</v>
+        <v>0.03811637340146069</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1327563565.325329</v>
+        <v>2062771017.921342</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1025465884108088</v>
+        <v>0.1013845743508579</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02882115799064391</v>
+        <v>0.03100517648428688</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1943828638.801085</v>
+        <v>2163362675.821268</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1446188193576707</v>
+        <v>0.1185474285378745</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02454544062654312</v>
+        <v>0.02848600931215737</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1417522749.819239</v>
+        <v>1105231874.771667</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1103358285989053</v>
+        <v>0.1012282658028932</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05327917764440435</v>
+        <v>0.04657877254273341</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2531605600.008129</v>
+        <v>2147521048.369577</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1440559609453441</v>
+        <v>0.1224970348817531</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03084668341382076</v>
+        <v>0.03927524045282561</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4145223302.885281</v>
+        <v>3898444969.642643</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07974369929039463</v>
+        <v>0.1119275330845338</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04642365248785196</v>
+        <v>0.03749212147020852</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2631110863.459191</v>
+        <v>2298071210.470308</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1791722739416598</v>
+        <v>0.1522937772625285</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02057808730024303</v>
+        <v>0.02069371309278846</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2104599605.11881</v>
+        <v>2067338556.297011</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07892999896286412</v>
+        <v>0.09758615816976796</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02884085779051047</v>
+        <v>0.03562591819279465</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2238324350.596212</v>
+        <v>2518983476.54054</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1299355853124837</v>
+        <v>0.1213631429697203</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05069913791189566</v>
+        <v>0.04849724209297829</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,19 +1712,19 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4648236383.363283</v>
+        <v>3560905190.999532</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1489226219961067</v>
+        <v>0.1336225191868758</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05077860601250406</v>
+        <v>0.05478697447396082</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3725879071.640368</v>
+        <v>3871329164.556721</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1742282527264583</v>
+        <v>0.1709330653560287</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05747659969621353</v>
+        <v>0.03751696681081597</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4638163137.123184</v>
+        <v>4657552729.138737</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1070478878545492</v>
+        <v>0.09645817210539881</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03354636383428825</v>
+        <v>0.03783615385917793</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1530891650.999476</v>
+        <v>1797398513.738863</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1769258811886329</v>
+        <v>0.1706146804495617</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04166324335054402</v>
+        <v>0.03238176565030565</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3798647181.076207</v>
+        <v>2563773604.062536</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1347553964919592</v>
+        <v>0.1572342335285483</v>
       </c>
       <c r="G50" t="n">
-        <v>0.051505205605127</v>
+        <v>0.03683545961630447</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1274496566.491936</v>
+        <v>1105833226.744204</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1922973381617526</v>
+        <v>0.1281700190610258</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0377430537787007</v>
+        <v>0.03621192436009862</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3981876302.106996</v>
+        <v>3452361715.996058</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08932693486705873</v>
+        <v>0.1235114484137825</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05263560647668935</v>
+        <v>0.04822074485046327</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2900171291.847349</v>
+        <v>2372909598.071522</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1321199914227579</v>
+        <v>0.1745672472897653</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02797785703850847</v>
+        <v>0.03315910446893617</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3248640398.801668</v>
+        <v>4900593178.454859</v>
       </c>
       <c r="F54" t="n">
-        <v>0.146185103766436</v>
+        <v>0.1415338861547051</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04252496899266425</v>
+        <v>0.03598856345184404</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4421401309.963929</v>
+        <v>3280193172.178832</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1558515914030568</v>
+        <v>0.1978457299620637</v>
       </c>
       <c r="G55" t="n">
-        <v>0.020765924960822</v>
+        <v>0.02250456984621808</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1748343504.610746</v>
+        <v>1486819071.095163</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1510259743980823</v>
+        <v>0.1540051115645516</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05007773925720977</v>
+        <v>0.05164065925600171</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4112879086.946632</v>
+        <v>2932455867.998438</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1808464157408953</v>
+        <v>0.1406018908249372</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02320434151503826</v>
+        <v>0.02213959339716488</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1807809264.754471</v>
+        <v>1783803396.009853</v>
       </c>
       <c r="F58" t="n">
-        <v>0.162409530200387</v>
+        <v>0.1675876070514113</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02496606227565384</v>
+        <v>0.03883939799673587</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3749566765.354905</v>
+        <v>4845292781.233378</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1048530806305838</v>
+        <v>0.1104252626088928</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04508412003370752</v>
+        <v>0.03248763319403146</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2981838528.107409</v>
+        <v>2452370094.646565</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1593132895015302</v>
+        <v>0.1378619017795537</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02236065102758432</v>
+        <v>0.02392014369003805</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2471443578.500471</v>
+        <v>2555820841.824818</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1203463965304297</v>
+        <v>0.1087942489681005</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02129240009555237</v>
+        <v>0.02366089333420635</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2166,13 +2166,13 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1793600653.511614</v>
+        <v>1336233964.280089</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1173795713700458</v>
+        <v>0.1808325480348121</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04740854538056342</v>
+        <v>0.04434031688592494</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4825841328.720427</v>
+        <v>5391925263.171342</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06588882053990072</v>
+        <v>0.08795569502463545</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03500364743182072</v>
+        <v>0.03678269486506977</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3581660040.28091</v>
+        <v>4032018237.081482</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1773977071422427</v>
+        <v>0.1887347210881823</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02512183632021744</v>
+        <v>0.03132969388862526</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5524017033.985774</v>
+        <v>3891911660.692477</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1233164686550853</v>
+        <v>0.1227769979297385</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02312567078458048</v>
+        <v>0.02306826690830702</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5428386693.414401</v>
+        <v>4238310385.371263</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1464219390106395</v>
+        <v>0.1332448019347356</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04594276057246269</v>
+        <v>0.04084411892790506</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2112600038.57166</v>
+        <v>3259638376.265188</v>
       </c>
       <c r="F67" t="n">
-        <v>0.1014360917563284</v>
+        <v>0.08136518574244005</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04025945834036818</v>
+        <v>0.0495912402738044</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5036555269.430774</v>
+        <v>4044765378.378365</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1398001606130014</v>
+        <v>0.1553732384765805</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03603664185465516</v>
+        <v>0.04481903179922574</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2146526819.416582</v>
+        <v>1562640021.568352</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1200346674761266</v>
+        <v>0.1462730149082018</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04948524765104607</v>
+        <v>0.03651331844192336</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3359371099.13422</v>
+        <v>3204219861.639292</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08061591204442774</v>
+        <v>0.0994878098074983</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04272539277412177</v>
+        <v>0.0379821021267099</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5621548042.888333</v>
+        <v>4163579718.649287</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1280809563784361</v>
+        <v>0.1829344371482696</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02766692126627899</v>
+        <v>0.02110871034024872</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1733679695.402818</v>
+        <v>1853236990.850566</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08551042674599622</v>
+        <v>0.09927028876568426</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03390228192124203</v>
+        <v>0.0390816788686448</v>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2673677330.616071</v>
+        <v>2572618921.089908</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09679861156721596</v>
+        <v>0.07711723840609136</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04757025034368097</v>
+        <v>0.04834776120971032</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3295813434.003707</v>
+        <v>2483922410.347316</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1769232580004665</v>
+        <v>0.1362834104382724</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0306983784668101</v>
+        <v>0.02371403092859783</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1851864198.848464</v>
+        <v>2401314819.125307</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1319882445004161</v>
+        <v>0.1597580931449451</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02754213213057089</v>
+        <v>0.03686026889323119</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4653957103.371895</v>
+        <v>3710402286.373029</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1081381447106158</v>
+        <v>0.1224094402879775</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02219817940352349</v>
+        <v>0.02952277065423927</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2241134213.51019</v>
+        <v>1957646572.962156</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1812437034473422</v>
+        <v>0.1706514491499893</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02286588123010594</v>
+        <v>0.02299746126412084</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4483418213.531599</v>
+        <v>4554124341.386357</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1316960491260033</v>
+        <v>0.1131939520881574</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04104818094761118</v>
+        <v>0.03491898272961971</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1380190540.421549</v>
+        <v>1435073860.898089</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1616343039772624</v>
+        <v>0.1678940468584054</v>
       </c>
       <c r="G79" t="n">
-        <v>0.030595094868485</v>
+        <v>0.02519599340688703</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4302934983.132457</v>
+        <v>4515844331.352902</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09788948387362745</v>
+        <v>0.0904090676334372</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02695770031069246</v>
+        <v>0.03201508184811073</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3892711233.260856</v>
+        <v>3862840295.799069</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1201519374003134</v>
+        <v>0.08736407904222382</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02897626112832572</v>
+        <v>0.03246168259055449</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3641290915.714395</v>
+        <v>4935766172.867224</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2163860585184435</v>
+        <v>0.2088225444334268</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02269549409833928</v>
+        <v>0.02908181195038147</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1683555826.440574</v>
+        <v>2385774490.180665</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1480491607020858</v>
+        <v>0.1372725880185121</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0328350355486117</v>
+        <v>0.03154470612073459</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2261872947.622213</v>
+        <v>2181335391.214334</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08488129700807123</v>
+        <v>0.07883908858260109</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03232008300677961</v>
+        <v>0.03927545333098672</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3095681623.942315</v>
+        <v>3506204973.018094</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1380522778017986</v>
+        <v>0.1128867892714286</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03966347588857622</v>
+        <v>0.05432710778395012</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2091753742.359572</v>
+        <v>1956410318.230447</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1205490817245472</v>
+        <v>0.1678210792145892</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01881898856243351</v>
+        <v>0.01693296927229112</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1035209817.685556</v>
+        <v>933134029.9440995</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1179193433520859</v>
+        <v>0.1437555881880749</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0420665536052086</v>
+        <v>0.0436293957873462</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3213609985.224434</v>
+        <v>3591895984.734308</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1524717368118753</v>
+        <v>0.1785498764507086</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03858217800364213</v>
+        <v>0.02557619412840576</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2935454123.943136</v>
+        <v>3438270765.779743</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1355187396473528</v>
+        <v>0.159127155234872</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03269325714477628</v>
+        <v>0.03283202631913962</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2086510659.077067</v>
+        <v>1450401389.088924</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09839270759826635</v>
+        <v>0.1325138782244612</v>
       </c>
       <c r="G90" t="n">
-        <v>0.053437936778998</v>
+        <v>0.04128466124744248</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1459406149.260456</v>
+        <v>1725379285.309386</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1692401433796987</v>
+        <v>0.1255797042437747</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05686599964233688</v>
+        <v>0.0557849487205861</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,16 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2567097725.477957</v>
+        <v>2501919837.817982</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07721575797611836</v>
+        <v>0.08196211034480054</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04269937106193812</v>
+        <v>0.04418838207935586</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4193242350.902246</v>
+        <v>4436233321.351552</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1134615198852595</v>
+        <v>0.09652896118507408</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04480485033256847</v>
+        <v>0.0474364402590543</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2309328950.775432</v>
+        <v>2520531680.321644</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1406327208083182</v>
+        <v>0.1636762532331321</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04318224660616246</v>
+        <v>0.03509311568196851</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,22 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2923496889.498503</v>
+        <v>2909693550.249611</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1265475323883839</v>
+        <v>0.09401949464371914</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04909277281143051</v>
+        <v>0.03674311262203698</v>
       </c>
       <c r="H95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2058980716.849159</v>
+        <v>2165065695.233879</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1030525896183243</v>
+        <v>0.09028855649059857</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03387383334380851</v>
+        <v>0.04230504409573618</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3981578593.749291</v>
+        <v>4450414651.933248</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1187429722861415</v>
+        <v>0.1276142045409174</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02814750964320313</v>
+        <v>0.01783877281935319</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3435632676.677386</v>
+        <v>3153514917.826812</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1051595828440928</v>
+        <v>0.08870791863520024</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02186479220556169</v>
+        <v>0.03238695498215315</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2595855830.889327</v>
+        <v>2342506801.505832</v>
       </c>
       <c r="F99" t="n">
-        <v>0.139946338556229</v>
+        <v>0.1341592142448731</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03107022384442153</v>
+        <v>0.03322449768263173</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4554595619.973867</v>
+        <v>3913457859.156371</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1202291275572251</v>
+        <v>0.1592326116279094</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02334911887646846</v>
+        <v>0.02694493139838501</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3297859855.096183</v>
+        <v>3000325649.598364</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2107461279503692</v>
+        <v>0.211312580327526</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04089137159994709</v>
+        <v>0.04833143413501718</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_48.xlsx
+++ b/output/fit_clients/fit_round_48.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1737917967.009261</v>
+        <v>1559287811.750228</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0732024020322791</v>
+        <v>0.07293627754838239</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02988009865124219</v>
+        <v>0.04253235777141046</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2068450718.34306</v>
+        <v>2321886931.33786</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1773123493975661</v>
+        <v>0.1506595864289599</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04569510249123201</v>
+        <v>0.04849073293465717</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,16 +571,25 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4368246409.853991</v>
+        <v>4309068941.787393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1039972060299302</v>
+        <v>0.1437792378197087</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03441513820276924</v>
+        <v>0.02986473845544147</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>35</v>
+      </c>
+      <c r="J4" t="n">
+        <v>48</v>
+      </c>
+      <c r="K4" t="n">
+        <v>210.4714964428579</v>
       </c>
     </row>
     <row r="5">
@@ -570,17 +608,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2852842380.481528</v>
+        <v>4189976508.819805</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09660546016440914</v>
+        <v>0.080161191324699</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04118363178244387</v>
+        <v>0.04074232071414145</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21</v>
+      </c>
+      <c r="J5" t="n">
+        <v>48</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2628317759.664845</v>
+        <v>1952896424.221652</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09689449529241276</v>
+        <v>0.1127480376843619</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04718980894565467</v>
+        <v>0.04982935902509147</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2793068252.858055</v>
+        <v>2053875279.287258</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08591656900950745</v>
+        <v>0.09719427014832109</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03520545591708113</v>
+        <v>0.04303764751761803</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3589812027.711998</v>
+        <v>2758243741.03714</v>
       </c>
       <c r="F8" t="n">
-        <v>0.172402857921745</v>
+        <v>0.1490294906842896</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02131298841311585</v>
+        <v>0.02774556877886849</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>45</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1794746284.302444</v>
+        <v>2210672147.873184</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1826621136760728</v>
+        <v>0.1390429960084629</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02934422508153847</v>
+        <v>0.03379231914423133</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5517853951.916553</v>
+        <v>4287967165.051166</v>
       </c>
       <c r="F10" t="n">
-        <v>0.149902878874555</v>
+        <v>0.2072153602240308</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04804840653481453</v>
+        <v>0.04190197378425756</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>44</v>
+      </c>
+      <c r="J10" t="n">
+        <v>48</v>
+      </c>
+      <c r="K10" t="n">
+        <v>233.4171980842289</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +814,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3289628473.029351</v>
+        <v>3759929500.813184</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1841556866241997</v>
+        <v>0.1843472542167983</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03892519742113169</v>
+        <v>0.03995835093222729</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>48</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3234240554.189042</v>
+        <v>3228693008.456162</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1583322830767341</v>
+        <v>0.1766704286605915</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04188462399981542</v>
+        <v>0.05107597289029756</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4208671023.936669</v>
+        <v>3337814633.42928</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07172957099948316</v>
+        <v>0.1014049269485508</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02483510451206403</v>
+        <v>0.0255917648300236</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>46</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +919,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2734633484.228417</v>
+        <v>2805739436.442134</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1217228680706212</v>
+        <v>0.1218581165913986</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03542288217643866</v>
+        <v>0.03444085719701405</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>47</v>
+      </c>
+      <c r="K14" t="n">
+        <v>111.5870041937414</v>
       </c>
     </row>
     <row r="15">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1168791070.06053</v>
+        <v>1327658570.217785</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07834942706750272</v>
+        <v>0.1013785500248506</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04805700159315051</v>
+        <v>0.04742187975841398</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2558971531.022859</v>
+        <v>2672783508.948194</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1046223455023878</v>
+        <v>0.09091234117399026</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04491515080704908</v>
+        <v>0.05054618231778532</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4967447484.510389</v>
+        <v>4959014343.346486</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1681014024458553</v>
+        <v>0.1266262607898355</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04122757401968323</v>
+        <v>0.04027423578099269</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>23</v>
+      </c>
+      <c r="J17" t="n">
+        <v>47</v>
+      </c>
+      <c r="K17" t="n">
+        <v>192.4582451602602</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1063,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2597453212.354134</v>
+        <v>2420502685.796365</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1743692556338819</v>
+        <v>0.1461479666861586</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0246385413668345</v>
+        <v>0.03172514587369059</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>11</v>
+      </c>
+      <c r="J18" t="n">
+        <v>46</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1098,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>841212256.1421486</v>
+        <v>1156701442.628359</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1538897804574346</v>
+        <v>0.1557997904801057</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02155665009215029</v>
+        <v>0.01666811393368104</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1133,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2099711077.228121</v>
+        <v>2166918519.39884</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1532543306107334</v>
+        <v>0.1162934365400866</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0288545265150053</v>
+        <v>0.02059269761139138</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1168,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2205938585.156022</v>
+        <v>1671559801.987757</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06260267115043093</v>
+        <v>0.08620770484119705</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03119161955360357</v>
+        <v>0.04155643632357845</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1209,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3748732973.690586</v>
+        <v>3232106480.306084</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1059470868899274</v>
+        <v>0.1035826211808577</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05358230551255142</v>
+        <v>0.04629098278549034</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>14</v>
+      </c>
+      <c r="J22" t="n">
+        <v>46</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1155667200.832437</v>
+        <v>1032302680.86125</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1357445792666646</v>
+        <v>0.130243893458935</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05140542457161709</v>
+        <v>0.04926515054794196</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1273,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3829656927.434143</v>
+        <v>2595753789.169164</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1319492490580983</v>
+        <v>0.1193212615789314</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02713488490142264</v>
+        <v>0.02377807649332345</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>13</v>
+      </c>
+      <c r="J24" t="n">
+        <v>46</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1314,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1337362493.219131</v>
+        <v>1219317161.837182</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1157775737857267</v>
+        <v>0.09489613535479524</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02891667223195511</v>
+        <v>0.0225816251021509</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1343,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1131939124.814076</v>
+        <v>1156133043.737969</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1030982974538721</v>
+        <v>0.07991199852093679</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02953041091346264</v>
+        <v>0.03096012566557004</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1378,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3048644349.154492</v>
+        <v>4617182894.443444</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1406743638603933</v>
+        <v>0.1529466642301513</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02428574376590653</v>
+        <v>0.02104815007594767</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>19</v>
+      </c>
+      <c r="J27" t="n">
+        <v>47</v>
+      </c>
+      <c r="K27" t="n">
+        <v>168.8653568953471</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3585258346.643733</v>
+        <v>3220052892.607174</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1477114338939229</v>
+        <v>0.1039446373687698</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04182864009088579</v>
+        <v>0.04267638894653755</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14</v>
+      </c>
+      <c r="J28" t="n">
+        <v>47</v>
+      </c>
+      <c r="K28" t="n">
+        <v>146.7574822469562</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5902409822.324246</v>
+        <v>5710896214.268734</v>
       </c>
       <c r="F29" t="n">
-        <v>0.130143416183243</v>
+        <v>0.1471277209452629</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02833264587784127</v>
+        <v>0.02965337702430655</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>43</v>
+      </c>
+      <c r="J29" t="n">
+        <v>48</v>
+      </c>
+      <c r="K29" t="n">
+        <v>238.6162703254964</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2003526683.947876</v>
+        <v>1778443201.764236</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1018039497789167</v>
+        <v>0.1139151380041603</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03189956332536749</v>
+        <v>0.03818861077606251</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1524,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1192852262.045016</v>
+        <v>1019128559.249888</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09780537027401111</v>
+        <v>0.07335275131772581</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03858472566651331</v>
+        <v>0.03367018260299658</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1251721352.620639</v>
+        <v>1290369124.660133</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08901603928373625</v>
+        <v>0.07966676193175691</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03397806625653819</v>
+        <v>0.02832647734655621</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2251975369.404873</v>
+        <v>2550912473.118656</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1731622437195008</v>
+        <v>0.1891665627348116</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05387383269005022</v>
+        <v>0.04170675729426961</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1344945437.271348</v>
+        <v>1430238963.827704</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1056778051159839</v>
+        <v>0.1172796643016351</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02635973360594133</v>
+        <v>0.01913682394796759</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1057866146.295575</v>
+        <v>1000533630.161843</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1183082033905552</v>
+        <v>0.0841414766953897</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03557090780226364</v>
+        <v>0.03823225806692439</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2979390342.879185</v>
+        <v>2661379735.934085</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1548198365925482</v>
+        <v>0.1550910551174015</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02416498234909095</v>
+        <v>0.02602790705819895</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1740,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2255775515.758927</v>
+        <v>2708551828.741724</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06930683756311494</v>
+        <v>0.08768258508870672</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03811637340146069</v>
+        <v>0.02566313508725363</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2062771017.921342</v>
+        <v>1765713894.395431</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1013845743508579</v>
+        <v>0.07806877289695896</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03100517648428688</v>
+        <v>0.03529976034135227</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2163362675.821268</v>
+        <v>1525476182.078762</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1185474285378745</v>
+        <v>0.1777321449659858</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02848600931215737</v>
+        <v>0.02407240544292618</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1105231874.771667</v>
+        <v>1614570631.403121</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1012282658028932</v>
+        <v>0.1225804103378072</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04657877254273341</v>
+        <v>0.04844527163868954</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2147521048.369577</v>
+        <v>1874165868.459505</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1224970348817531</v>
+        <v>0.1170319826028081</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03927524045282561</v>
+        <v>0.04258672459703971</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3898444969.642643</v>
+        <v>3953045663.786097</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1119275330845338</v>
+        <v>0.1186102397143129</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03749212147020852</v>
+        <v>0.03214172554607311</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>16</v>
+      </c>
+      <c r="J42" t="n">
+        <v>48</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1950,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2298071210.470308</v>
+        <v>2686291830.905801</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1522937772625285</v>
+        <v>0.1378863039828233</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02069371309278846</v>
+        <v>0.01750674469406094</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2067338556.297011</v>
+        <v>2244628645.613905</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09758615816976796</v>
+        <v>0.09953070291504057</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03562591819279465</v>
+        <v>0.03045222189173164</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2518983476.54054</v>
+        <v>1558559584.029668</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1213631429697203</v>
+        <v>0.1622180279552735</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04849724209297829</v>
+        <v>0.04609540653891023</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3560905190.999532</v>
+        <v>5105429307.447796</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1336225191868758</v>
+        <v>0.1604905582600753</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05478697447396082</v>
+        <v>0.04341346337154309</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>29</v>
+      </c>
+      <c r="J46" t="n">
+        <v>48</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2090,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3871329164.556721</v>
+        <v>4408426668.444882</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1709330653560287</v>
+        <v>0.2009273581862553</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03751696681081597</v>
+        <v>0.04408136030323653</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>20</v>
+      </c>
+      <c r="J47" t="n">
+        <v>48</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2119,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4657552729.138737</v>
+        <v>4156464958.6044</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09645817210539881</v>
+        <v>0.09607575572807019</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03783615385917793</v>
+        <v>0.03075675905610363</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15</v>
+      </c>
+      <c r="J48" t="n">
+        <v>48</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2154,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1797398513.738863</v>
+        <v>1533095443.874946</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1706146804495617</v>
+        <v>0.1230496484007717</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03238176565030565</v>
+        <v>0.0270198337538449</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2563773604.062536</v>
+        <v>3193851715.20275</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1572342335285483</v>
+        <v>0.1413492862507611</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03683545961630447</v>
+        <v>0.05183415273816692</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>17</v>
+      </c>
+      <c r="J50" t="n">
+        <v>46</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2230,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1105833226.744204</v>
+        <v>1535121735.34276</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1281700190610258</v>
+        <v>0.1572358588124921</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03621192436009862</v>
+        <v>0.04468003236790824</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2265,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3452361715.996058</v>
+        <v>3416212118.747858</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1235114484137825</v>
+        <v>0.1031932235121703</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04822074485046327</v>
+        <v>0.05148981108879368</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>37</v>
+      </c>
+      <c r="J52" t="n">
+        <v>47</v>
+      </c>
+      <c r="K52" t="n">
+        <v>179.0305266126033</v>
       </c>
     </row>
     <row r="53">
@@ -1914,17 +2302,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2372909598.071522</v>
+        <v>3211495910.911112</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1745672472897653</v>
+        <v>0.1551266249131407</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03315910446893617</v>
+        <v>0.02849831720790812</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>6</v>
+      </c>
+      <c r="J53" t="n">
+        <v>36</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4900593178.454859</v>
+        <v>3169698473.407397</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1415338861547051</v>
+        <v>0.1651841018745216</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03598856345184404</v>
+        <v>0.04976235535986082</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>21</v>
+      </c>
+      <c r="J54" t="n">
+        <v>47</v>
+      </c>
+      <c r="K54" t="n">
+        <v>141.0262254290668</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3280193172.178832</v>
+        <v>3650468248.090879</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1978457299620637</v>
+        <v>0.2076564455604167</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02250456984621808</v>
+        <v>0.02533363524741142</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>23</v>
+      </c>
+      <c r="J55" t="n">
+        <v>47</v>
+      </c>
+      <c r="K55" t="n">
+        <v>165.2494272704084</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1486819071.095163</v>
+        <v>1754220119.116834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1540051115645516</v>
+        <v>0.1152761526815373</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05164065925600171</v>
+        <v>0.04187960400910486</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2932455867.998438</v>
+        <v>2869966821.943002</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1406018908249372</v>
+        <v>0.1731958567300511</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02213959339716488</v>
+        <v>0.02288317941604437</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>17</v>
+      </c>
+      <c r="J57" t="n">
+        <v>45</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1783803396.009853</v>
+        <v>1402151151.37806</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1675876070514113</v>
+        <v>0.1917491140787372</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03883939799673587</v>
+        <v>0.02615389447237575</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4845292781.233378</v>
+        <v>5239700457.639029</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1104252626088928</v>
+        <v>0.09331659651904199</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03248763319403146</v>
+        <v>0.04379103746239094</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>23</v>
+      </c>
+      <c r="J59" t="n">
+        <v>47</v>
+      </c>
+      <c r="K59" t="n">
+        <v>182.5412665605884</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2547,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2452370094.646565</v>
+        <v>3664635630.208983</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1378619017795537</v>
+        <v>0.1703531908615408</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02392014369003805</v>
+        <v>0.02561343494827764</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>6</v>
+      </c>
+      <c r="J60" t="n">
+        <v>47</v>
+      </c>
+      <c r="K60" t="n">
+        <v>180.7389866484946</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2555820841.824818</v>
+        <v>3006925859.731919</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1087942489681005</v>
+        <v>0.1622393974646862</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02366089333420635</v>
+        <v>0.02934987313597442</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1336233964.280089</v>
+        <v>1494627481.330719</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1808325480348121</v>
+        <v>0.1761080031511726</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04434031688592494</v>
+        <v>0.0384379899602183</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5391925263.171342</v>
+        <v>4115668861.881297</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08795569502463545</v>
+        <v>0.06644129857503321</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03678269486506977</v>
+        <v>0.0403473698563384</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>23</v>
+      </c>
+      <c r="J63" t="n">
+        <v>48</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2689,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4032018237.081482</v>
+        <v>5441644849.045471</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1887347210881823</v>
+        <v>0.118154055259737</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03132969388862526</v>
+        <v>0.02396920984250283</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>24</v>
+      </c>
+      <c r="J64" t="n">
+        <v>47</v>
+      </c>
+      <c r="K64" t="n">
+        <v>195.818702179462</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2726,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3891911660.692477</v>
+        <v>3776360306.486858</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1227769979297385</v>
+        <v>0.1287495781495367</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02306826690830702</v>
+        <v>0.02982606489551175</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>40</v>
+      </c>
+      <c r="J65" t="n">
+        <v>48</v>
+      </c>
+      <c r="K65" t="n">
+        <v>205.4042322829769</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2763,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4238310385.371263</v>
+        <v>5717134267.279755</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1332448019347356</v>
+        <v>0.154267168185896</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04084411892790506</v>
+        <v>0.0503724832139438</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>24</v>
+      </c>
+      <c r="J66" t="n">
+        <v>47</v>
+      </c>
+      <c r="K66" t="n">
+        <v>191.7091985526845</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3259638376.265188</v>
+        <v>3128164769.428161</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08136518574244005</v>
+        <v>0.09761069995454692</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0495912402738044</v>
+        <v>0.03702698885321046</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2835,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4044765378.378365</v>
+        <v>4923764365.842327</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1553732384765805</v>
+        <v>0.1490661058107638</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04481903179922574</v>
+        <v>0.03946260172350943</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>24</v>
+      </c>
+      <c r="J68" t="n">
+        <v>47</v>
+      </c>
+      <c r="K68" t="n">
+        <v>198.2883489278671</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2878,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1562640021.568352</v>
+        <v>1520722499.994875</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1462730149082018</v>
+        <v>0.1310939564246081</v>
       </c>
       <c r="G69" t="n">
-        <v>0.03651331844192336</v>
+        <v>0.04653487387281005</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3204219861.639292</v>
+        <v>2633416425.337392</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0994878098074983</v>
+        <v>0.07890300662739458</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0379821021267099</v>
+        <v>0.03950515595131428</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>5</v>
+      </c>
+      <c r="J70" t="n">
+        <v>46</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4163579718.649287</v>
+        <v>5057778498.930347</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1829344371482696</v>
+        <v>0.1635449195462057</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02110871034024872</v>
+        <v>0.02264324018371484</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>39</v>
+      </c>
+      <c r="J71" t="n">
+        <v>48</v>
+      </c>
+      <c r="K71" t="n">
+        <v>211.108025916738</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1853236990.850566</v>
+        <v>2044879528.568887</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09927028876568426</v>
+        <v>0.06628494893535068</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0390816788686448</v>
+        <v>0.04868498317202098</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3020,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2572618921.089908</v>
+        <v>3317169889.233224</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07711723840609136</v>
+        <v>0.09736178410323193</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04834776120971032</v>
+        <v>0.04365730195458355</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>42</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2483922410.347316</v>
+        <v>3803734049.250228</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1362834104382724</v>
+        <v>0.1523158801133103</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02371403092859783</v>
+        <v>0.0348738423553017</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>13</v>
+      </c>
+      <c r="J74" t="n">
+        <v>48</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2401314819.125307</v>
+        <v>2066195944.442134</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1597580931449451</v>
+        <v>0.1614176686215689</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03686026889323119</v>
+        <v>0.02370561103087503</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3125,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3710402286.373029</v>
+        <v>3401496903.82323</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1224094402879775</v>
+        <v>0.1230826826971829</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02952277065423927</v>
+        <v>0.02793161591992329</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>22</v>
+      </c>
+      <c r="J76" t="n">
+        <v>48</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1957646572.962156</v>
+        <v>2107655508.649542</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1706514491499893</v>
+        <v>0.1357424794624217</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02299746126412084</v>
+        <v>0.02252851417466514</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4554124341.386357</v>
+        <v>3461494372.336855</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1131939520881574</v>
+        <v>0.1154399660206575</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03491898272961971</v>
+        <v>0.05217933827116208</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>20</v>
+      </c>
+      <c r="J78" t="n">
+        <v>48</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1435073860.898089</v>
+        <v>1370836689.928544</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1678940468584054</v>
+        <v>0.1583837133732365</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02519599340688703</v>
+        <v>0.03914014470700142</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4515844331.352902</v>
+        <v>3815585488.947649</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0904090676334372</v>
+        <v>0.0720059835368165</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03201508184811073</v>
+        <v>0.02507358409957079</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>23</v>
+      </c>
+      <c r="J80" t="n">
+        <v>47</v>
+      </c>
+      <c r="K80" t="n">
+        <v>164.8374212011218</v>
       </c>
     </row>
     <row r="81">
@@ -2698,17 +3302,24 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3862840295.799069</v>
+        <v>3270623524.655381</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08736407904222382</v>
+        <v>0.1133225631358293</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03246168259055449</v>
+        <v>0.02906788608749046</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>21</v>
+      </c>
+      <c r="J81" t="n">
+        <v>46</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4935766172.867224</v>
+        <v>3509111173.009848</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2088225444334268</v>
+        <v>0.1773061920734813</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02908181195038147</v>
+        <v>0.02246033305271678</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>28</v>
+      </c>
+      <c r="J82" t="n">
+        <v>47</v>
+      </c>
+      <c r="K82" t="n">
+        <v>178.5889378426444</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3374,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2385774490.180665</v>
+        <v>2266988445.640516</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1372725880185121</v>
+        <v>0.1057139994785567</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03154470612073459</v>
+        <v>0.0366902913407044</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2181335391.214334</v>
+        <v>1673939750.093015</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07883908858260109</v>
+        <v>0.1113706622359752</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03927545333098672</v>
+        <v>0.03544626422207339</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3506204973.018094</v>
+        <v>3481882045.309661</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1128867892714286</v>
+        <v>0.1297840386897111</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05432710778395012</v>
+        <v>0.05070057038427027</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>48</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1956410318.230447</v>
+        <v>1967694483.130482</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1678210792145892</v>
+        <v>0.1408912705470725</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01693296927229112</v>
+        <v>0.01720253787301701</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>933134029.9440995</v>
+        <v>1244394691.001646</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1437555881880749</v>
+        <v>0.1714055278406765</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0436293957873462</v>
+        <v>0.04257023842234071</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3543,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3591895984.734308</v>
+        <v>3148953362.292754</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1785498764507086</v>
+        <v>0.1626343048558022</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02557619412840576</v>
+        <v>0.03918273049314797</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>7</v>
+      </c>
+      <c r="J88" t="n">
+        <v>46</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3438270765.779743</v>
+        <v>3069141606.530614</v>
       </c>
       <c r="F89" t="n">
-        <v>0.159127155234872</v>
+        <v>0.1291175498569462</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03283202631913962</v>
+        <v>0.04136821444993414</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>5</v>
+      </c>
+      <c r="J89" t="n">
+        <v>40</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3619,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1450401389.088924</v>
+        <v>2115207695.133692</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1325138782244612</v>
+        <v>0.116364375835632</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04128466124744248</v>
+        <v>0.0513151112321857</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1725379285.309386</v>
+        <v>1519168482.369573</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1255797042437747</v>
+        <v>0.1475692954290439</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0557849487205861</v>
+        <v>0.05730609789082781</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3683,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2501919837.817982</v>
+        <v>2497296049.825253</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08196211034480054</v>
+        <v>0.08192563061257302</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04418838207935586</v>
+        <v>0.04715348069262743</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4436233321.351552</v>
+        <v>4530950514.592587</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09652896118507408</v>
+        <v>0.1308969746214014</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0474364402590543</v>
+        <v>0.03732273388243538</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>21</v>
+      </c>
+      <c r="J93" t="n">
+        <v>48</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2520531680.321644</v>
+        <v>2498204996.176503</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1636762532331321</v>
+        <v>0.1521851157307648</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03509311568196851</v>
+        <v>0.03842923669457261</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2909693550.249611</v>
+        <v>3030820762.162138</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09401949464371914</v>
+        <v>0.08607615552979547</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03674311262203698</v>
+        <v>0.05238267798440959</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2165065695.233879</v>
+        <v>1853489462.97315</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09028855649059857</v>
+        <v>0.1008934873332804</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04230504409573618</v>
+        <v>0.04450313180330145</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4450414651.933248</v>
+        <v>4300653071.974674</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1276142045409174</v>
+        <v>0.1125412453864795</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01783877281935319</v>
+        <v>0.0212895754302812</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>23</v>
+      </c>
+      <c r="J97" t="n">
+        <v>48</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3899,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3153514917.826812</v>
+        <v>3514050057.937685</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08870791863520024</v>
+        <v>0.1103792074194887</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03238695498215315</v>
+        <v>0.03100669565789587</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>11</v>
+      </c>
+      <c r="J98" t="n">
+        <v>48</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2342506801.505832</v>
+        <v>2945610645.975547</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1341592142448731</v>
+        <v>0.1270761639099978</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03322449768263173</v>
+        <v>0.02430654743656169</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3913457859.156371</v>
+        <v>3140634928.72261</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1592326116279094</v>
+        <v>0.1386595614949981</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02694493139838501</v>
+        <v>0.01812796219736079</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>21</v>
+      </c>
+      <c r="J100" t="n">
+        <v>47</v>
+      </c>
+      <c r="K100" t="n">
+        <v>130.127797046369</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3000325649.598364</v>
+        <v>3405275272.256398</v>
       </c>
       <c r="F101" t="n">
-        <v>0.211312580327526</v>
+        <v>0.1434819059334517</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04833143413501718</v>
+        <v>0.04953305752557816</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>48</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
